--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_152.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_152.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_152.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_152.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Motel 6 New Orleans</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>New Orleans</t>
   </si>
   <si>
@@ -61,78 +139,6 @@
   </si>
   <si>
     <t>97</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -503,34 +509,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>35875</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70128</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -555,76 +580,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E2" t="n">
+        <v>70128</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_152.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_152.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="611">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,1760 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r621087901-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>60864</t>
+  </si>
+  <si>
+    <t>1203913</t>
+  </si>
+  <si>
+    <t>621087901</t>
+  </si>
+  <si>
+    <t>10/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Orleans East by I-10</t>
+  </si>
+  <si>
+    <t>This as always Pet Friendly Motel 6 is located at 123301 I-10 Service Road, New Orleans, LA 70128.  There is a Walmart and McDonalds at the I-10 exit for this property.  There is a separate Studio 6 Motel next to the Motel 6 (longer stays). We lodge at this Motel 6 every time we visit New Orleans because of the easy and quick I-10 access to the Super-dome, downtown New Orleans, etc.  The property is pet friendly, in good condition, good exterior lighting, and has limited fenced access to parking, nighttime security officer on-duty.  A typical mid-range Motel 6, 3 floors, elevators.  A convenient overnight or 1-3 days pit stop.  Enjoy.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This as always Pet Friendly Motel 6 is located at 123301 I-10 Service Road, New Orleans, LA 70128.  There is a Walmart and McDonalds at the I-10 exit for this property.  There is a separate Studio 6 Motel next to the Motel 6 (longer stays). We lodge at this Motel 6 every time we visit New Orleans because of the easy and quick I-10 access to the Super-dome, downtown New Orleans, etc.  The property is pet friendly, in good condition, good exterior lighting, and has limited fenced access to parking, nighttime security officer on-duty.  A typical mid-range Motel 6, 3 floors, elevators.  A convenient overnight or 1-3 days pit stop.  Enjoy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r607455697-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>607455697</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>Mold and roaches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our room wasn't really clean at check in. The sheets seemed clean but the floors wasn't. There is visible mold on the walls and ceiling. The people next to us were having a party so we slept as good as possible then left a few hours later.  </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r588627766-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>588627766</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>It’s clean that’s about all I can say.</t>
+  </si>
+  <si>
+    <t>Room was small. No breakfast. No hair dryer. No do not disturb sign. When asked was told they don’t have them. It rained in the morning and they closed the pool for the entire day. Disappointing. Wouldn’t stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 New Orleans, responded to this reviewResponded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Room was small. No breakfast. No hair dryer. No do not disturb sign. When asked was told they don’t have them. It rained in the morning and they closed the pool for the entire day. Disappointing. Wouldn’t stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r585598757-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>585598757</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>An absolutely horrible place to stay</t>
+  </si>
+  <si>
+    <t>Our experience at this hotel was as follows:  When we checked in, the pool was not accessible, and was out of order during our entire stay.  The last two days of our four day stay, the water heater was broken, and we had only cold water to shower in. (No compensation was offered for our trouble). Unlike most modern hotels, this room did not have a hair dryer.  One has to leave an i.d. with the front desk to borrow theirs. One also has to pay daily for internet usage. On day three of our vacation, we returned from a long day of touring to discover the maid had skipped our room, except to leave a pile of fresh towels on our un-maid beds.  On the evening of day 3 of our stay, we were kept awake into the early morning hours by a barking dog, and awakened again at 5:30 a.m. by the same dog.  I went to the front desk to complain about these matters and was told a manager was not available.  I asked for an 800 number.  The number provided by the front desk rang continually busy for a day, so I looked up another number on the internet and made a complaint prior to check out.  I was told by that person that she would call the hotel and speak with the manager and have the manager reach out to me.  She called me back...Our experience at this hotel was as follows:  When we checked in, the pool was not accessible, and was out of order during our entire stay.  The last two days of our four day stay, the water heater was broken, and we had only cold water to shower in. (No compensation was offered for our trouble). Unlike most modern hotels, this room did not have a hair dryer.  One has to leave an i.d. with the front desk to borrow theirs. One also has to pay daily for internet usage. On day three of our vacation, we returned from a long day of touring to discover the maid had skipped our room, except to leave a pile of fresh towels on our un-maid beds.  On the evening of day 3 of our stay, we were kept awake into the early morning hours by a barking dog, and awakened again at 5:30 a.m. by the same dog.  I went to the front desk to complain about these matters and was told a manager was not available.  I asked for an 800 number.  The number provided by the front desk rang continually busy for a day, so I looked up another number on the internet and made a complaint prior to check out.  I was told by that person that she would call the hotel and speak with the manager and have the manager reach out to me.  She called me back and said the manager had stepped out and would call me later that day.  It has been two days now, and I have not received a call, thus this review which I gave them every chance to avoid by correcting this situation.  This place is very seedy and very low class.  The pictures are deceiving.  I definitely would not recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 New Orleans, responded to this reviewResponded June 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2018</t>
+  </si>
+  <si>
+    <t>Our experience at this hotel was as follows:  When we checked in, the pool was not accessible, and was out of order during our entire stay.  The last two days of our four day stay, the water heater was broken, and we had only cold water to shower in. (No compensation was offered for our trouble). Unlike most modern hotels, this room did not have a hair dryer.  One has to leave an i.d. with the front desk to borrow theirs. One also has to pay daily for internet usage. On day three of our vacation, we returned from a long day of touring to discover the maid had skipped our room, except to leave a pile of fresh towels on our un-maid beds.  On the evening of day 3 of our stay, we were kept awake into the early morning hours by a barking dog, and awakened again at 5:30 a.m. by the same dog.  I went to the front desk to complain about these matters and was told a manager was not available.  I asked for an 800 number.  The number provided by the front desk rang continually busy for a day, so I looked up another number on the internet and made a complaint prior to check out.  I was told by that person that she would call the hotel and speak with the manager and have the manager reach out to me.  She called me back...Our experience at this hotel was as follows:  When we checked in, the pool was not accessible, and was out of order during our entire stay.  The last two days of our four day stay, the water heater was broken, and we had only cold water to shower in. (No compensation was offered for our trouble). Unlike most modern hotels, this room did not have a hair dryer.  One has to leave an i.d. with the front desk to borrow theirs. One also has to pay daily for internet usage. On day three of our vacation, we returned from a long day of touring to discover the maid had skipped our room, except to leave a pile of fresh towels on our un-maid beds.  On the evening of day 3 of our stay, we were kept awake into the early morning hours by a barking dog, and awakened again at 5:30 a.m. by the same dog.  I went to the front desk to complain about these matters and was told a manager was not available.  I asked for an 800 number.  The number provided by the front desk rang continually busy for a day, so I looked up another number on the internet and made a complaint prior to check out.  I was told by that person that she would call the hotel and speak with the manager and have the manager reach out to me.  She called me back and said the manager had stepped out and would call me later that day.  It has been two days now, and I have not received a call, thus this review which I gave them every chance to avoid by correcting this situation.  This place is very seedy and very low class.  The pictures are deceiving.  I definitely would not recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r583925648-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>583925648</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Great people, very helpful and basic but clean room. Reasonable price, weekend was higher. Pet friendly, which is important to me. Easy to get to tourist sites, Uber or taxi about the same price. No amenities so come prepared with your shampoo , etc. Front desk went to the trouble to find a hair dryer for me.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r571128053-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>571128053</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Crack/Hooker Motel</t>
+  </si>
+  <si>
+    <t>If I could give a negative star I would...let's start with check in where we were notified that aarp is no longer taken but the rate is given on website and not to mention they couldn't split payment on 2 cards but miraculously the next day they were able to. That night after check in about 2ish in the morning we were awaken by banging on the door screaming let me in mother f**ker....Every morning we were awaken to the abundant smells of marijuana and cigarettes as well as going to bed high off contact from the smell. Also let's not forget every time we pulled up to parking lot their were vehicles also filled with marijuana smoke with the windows cracked just enough to let a steady stream of reefer smoke leak out of the vehicle...oh yeah and the cars full of questionable females and their man friends dropping them off. Upon the stay we received a suspicious knock at our door as we were about to leave to get food for the evening...low and behold it was a dazed and confused cracked out zombie asking for a dime of drugs....after thinking she had been escorted out (because I notify front desk) we walk out to be chased down asking for the dime sack..This place was a nightmare and Never Again..My safety and the safety of my loved was was valued at a discounted price and return of $15...which...If I could give a negative star I would...let's start with check in where we were notified that aarp is no longer taken but the rate is given on website and not to mention they couldn't split payment on 2 cards but miraculously the next day they were able to. That night after check in about 2ish in the morning we were awaken by banging on the door screaming let me in mother f**ker....Every morning we were awaken to the abundant smells of marijuana and cigarettes as well as going to bed high off contact from the smell. Also let's not forget every time we pulled up to parking lot their were vehicles also filled with marijuana smoke with the windows cracked just enough to let a steady stream of reefer smoke leak out of the vehicle...oh yeah and the cars full of questionable females and their man friends dropping them off. Upon the stay we received a suspicious knock at our door as we were about to leave to get food for the evening...low and behold it was a dazed and confused cracked out zombie asking for a dime of drugs....after thinking she had been escorted out (because I notify front desk) we walk out to be chased down asking for the dime sack..This place was a nightmare and Never Again..My safety and the safety of my loved was was valued at a discounted price and return of $15...which the ridiculous property  manager thought was suitable after 4 nights..if I had the extra money after paying for this crack house/hooker motel I would have left after my first contact high...No Smoking Facility my rear...they better be glad my little ones who are e allergic to smoke didn't have a severe reaction aside from the nightly nose bleeds and wheezing...the management is absolutely uncaring and cold.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 New Orleans, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>If I could give a negative star I would...let's start with check in where we were notified that aarp is no longer taken but the rate is given on website and not to mention they couldn't split payment on 2 cards but miraculously the next day they were able to. That night after check in about 2ish in the morning we were awaken by banging on the door screaming let me in mother f**ker....Every morning we were awaken to the abundant smells of marijuana and cigarettes as well as going to bed high off contact from the smell. Also let's not forget every time we pulled up to parking lot their were vehicles also filled with marijuana smoke with the windows cracked just enough to let a steady stream of reefer smoke leak out of the vehicle...oh yeah and the cars full of questionable females and their man friends dropping them off. Upon the stay we received a suspicious knock at our door as we were about to leave to get food for the evening...low and behold it was a dazed and confused cracked out zombie asking for a dime of drugs....after thinking she had been escorted out (because I notify front desk) we walk out to be chased down asking for the dime sack..This place was a nightmare and Never Again..My safety and the safety of my loved was was valued at a discounted price and return of $15...which...If I could give a negative star I would...let's start with check in where we were notified that aarp is no longer taken but the rate is given on website and not to mention they couldn't split payment on 2 cards but miraculously the next day they were able to. That night after check in about 2ish in the morning we were awaken by banging on the door screaming let me in mother f**ker....Every morning we were awaken to the abundant smells of marijuana and cigarettes as well as going to bed high off contact from the smell. Also let's not forget every time we pulled up to parking lot their were vehicles also filled with marijuana smoke with the windows cracked just enough to let a steady stream of reefer smoke leak out of the vehicle...oh yeah and the cars full of questionable females and their man friends dropping them off. Upon the stay we received a suspicious knock at our door as we were about to leave to get food for the evening...low and behold it was a dazed and confused cracked out zombie asking for a dime of drugs....after thinking she had been escorted out (because I notify front desk) we walk out to be chased down asking for the dime sack..This place was a nightmare and Never Again..My safety and the safety of my loved was was valued at a discounted price and return of $15...which the ridiculous property  manager thought was suitable after 4 nights..if I had the extra money after paying for this crack house/hooker motel I would have left after my first contact high...No Smoking Facility my rear...they better be glad my little ones who are e allergic to smoke didn't have a severe reaction aside from the nightly nose bleeds and wheezing...the management is absolutely uncaring and cold.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r566541273-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>566541273</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Don't stay here!</t>
+  </si>
+  <si>
+    <t>After a long day of driving, I arrive at the hotel I was planning on spending 5 days in and made reservations for MONTHS in advance.  As I walk in the door I am hit with the smell of marijuana, (didn't believe a previous review and should have).  I then have to wait while the front desk associate set up a family of 4 in their room for a last minute stay, not a big deal, I understand busy.  My turn now, I walk up to the desk and give them my information.  I come to find out that they had my reservation messed up, they tried to put me in a room with 1 bed (traveling with a teenager) and a handicapped room.  She tells me this is what the reservation says.  I pull up my confirmation to show her that I did reserve a double room with 2 beds.  Not her problem, they have no room for me.  But the last minute person got a double room. So here I am a thousand miles away from home having to find a hotel at the last minute.  Not how I wanted to spend my night after 18 hours of driving.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 New Orleans, responded to this reviewResponded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2018</t>
+  </si>
+  <si>
+    <t>After a long day of driving, I arrive at the hotel I was planning on spending 5 days in and made reservations for MONTHS in advance.  As I walk in the door I am hit with the smell of marijuana, (didn't believe a previous review and should have).  I then have to wait while the front desk associate set up a family of 4 in their room for a last minute stay, not a big deal, I understand busy.  My turn now, I walk up to the desk and give them my information.  I come to find out that they had my reservation messed up, they tried to put me in a room with 1 bed (traveling with a teenager) and a handicapped room.  She tells me this is what the reservation says.  I pull up my confirmation to show her that I did reserve a double room with 2 beds.  Not her problem, they have no room for me.  But the last minute person got a double room. So here I am a thousand miles away from home having to find a hotel at the last minute.  Not how I wanted to spend my night after 18 hours of driving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r535805122-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>535805122</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good if you are leaving early from the airport </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is nothing special about this hotel. It's pretty basic. Not the cleanest but it has a free shuttle services 24 hours to the airport. We left Nola at 5 am and needed to be at the airport at 3 and it worked out great. Other from that, its pretty loud and smells funky. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r535092455-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>535092455</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Comfortable Stop Over</t>
+  </si>
+  <si>
+    <t>When you book thru an online sight you never know 100% what you are in for. This Motel 6 was just the right spot for a stop over stay. The rooms are spacious, simply furnished, clean, and comfortable. Flat screen tv and WiFi is available for a daily rate. Staff are courteous,  friendly,  and helpful. Morning coffee is available with vending machine snack selections. Having a car us a plus as it is a substantial distance to any restaurants or shopping and there are no sidewalks. They also have long term studios in an adjacent facility on the property. This was worth the stay.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r496612530-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>496612530</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Recently built unit in East New Orleans[where effects of Katrina are still visible]</t>
+  </si>
+  <si>
+    <t>Nice unit right along the interstate with a Studio 6 attached to motel. About 15 minute drive to the [French]Quarter[outside of rush hour]. Restaurants and shopping nearby.You can drive around the area and still see houses that are demolished right next to houses that have been rebuilt. Car is essential to staying here. An above average Motel 6.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r494861623-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>494861623</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Vacation 2017</t>
+  </si>
+  <si>
+    <t>We got there early so they told us to come back at 3 so when we arrived back to our room the bed was on it's side and floor was dirty so we had to switch rooms. That room was so cold you could hang meat. Woke up every morning with the floor wet. No free wifi which is disappointing since rooms have no frig,micowave or coffee pots but loved the pool.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r492324733-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>492324733</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Pet friendly</t>
+  </si>
+  <si>
+    <t>I read and re-read the reviews on this motel 6. I was hesitant!  But, we had a dog with us, the parking was free.  Not that easy to find in New Orleans.  This wasn't really a pleasure trip so we didn't want to spend a lot.  All that being said, the place was okay!  We didn't have towels in our room (like many other people) but I asked at the desk and it wasn't a problem.  The room was clean but not fancy..they don't give you shampoo or body lotion but that's okay..I don't expect that from a $50/night hotel.  Would I stay here again?  Probably not.  I'd spend a little more AND leave the dog home!  MoreShow less</t>
+  </si>
+  <si>
+    <t>I read and re-read the reviews on this motel 6. I was hesitant!  But, we had a dog with us, the parking was free.  Not that easy to find in New Orleans.  This wasn't really a pleasure trip so we didn't want to spend a lot.  All that being said, the place was okay!  We didn't have towels in our room (like many other people) but I asked at the desk and it wasn't a problem.  The room was clean but not fancy..they don't give you shampoo or body lotion but that's okay..I don't expect that from a $50/night hotel.  Would I stay here again?  Probably not.  I'd spend a little more AND leave the dog home!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r486801617-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>486801617</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Very Basic Hotel, SCary people hanging outside</t>
+  </si>
+  <si>
+    <t>The hotel was Very basic, good for one night if you just need a bed. No fridge in the room. The airco didn't work. The person at front desk was friendly. One day we arrived late, there were 'gang'like people hanging out on the parking lot, felt a bit scary.Lots of noise in the hall at night. Hotel was not far from Wallmarkt and other shops.NO free Wifi.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r479241076-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>479241076</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Served its purpose</t>
+  </si>
+  <si>
+    <t>I arrived early from GA and no problem with early check-in.  Front desk staff friendly and helpful.  It is not "fancy" but certainly functional.  WiFi was not free which was a turn-off but you get what you pay for.  The room was clean and the linen was fresh.  No complaints here during my 4 days here!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 New Orleans, responded to this reviewResponded April 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2017</t>
+  </si>
+  <si>
+    <t>I arrived early from GA and no problem with early check-in.  Front desk staff friendly and helpful.  It is not "fancy" but certainly functional.  WiFi was not free which was a turn-off but you get what you pay for.  The room was clean and the linen was fresh.  No complaints here during my 4 days here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r473712029-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>473712029</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>You don't get what your reservation says</t>
+  </si>
+  <si>
+    <t>We reserved two beds and got An email reservation to that effect. We were given a room with one full (not queen) bed. A full bed is 54 inches wide. A queen is 60 inches wide. There are no king or queen beds in this hotel. They are calling full beds queens. This a like calling a quart of milk a half gallon. They are not the same. A second woman was in the lobby with the same issue. She was traveling with a big person and could not fit in the bed. Neither of us could get any change or refunds. Also there were no towels in the room. Listening to a bunch of people running around the hallways now. Very loud hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>We reserved two beds and got An email reservation to that effect. We were given a room with one full (not queen) bed. A full bed is 54 inches wide. A queen is 60 inches wide. There are no king or queen beds in this hotel. They are calling full beds queens. This a like calling a quart of milk a half gallon. They are not the same. A second woman was in the lobby with the same issue. She was traveling with a big person and could not fit in the bed. Neither of us could get any change or refunds. Also there were no towels in the room. Listening to a bunch of people running around the hallways now. Very loud hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r473217578-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>473217578</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Good Showers!</t>
+  </si>
+  <si>
+    <t>This is a good hotel for a shower and sleep. Its modern decor is nice but it is covering up a very run down property. The property is surrounded by fences so there is only one way in and one way out. No views or anything. This is exactly what it you would expect for the location and money.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r473014044-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>473014044</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Never stayed</t>
+  </si>
+  <si>
+    <t>They canceled my room then told me when I said I needed a room that all that was available was a queen size bed! Other thing wrong with it was it was in a bad area so I'm happy they canceled my reservation! Next time I will call from the plane.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 New Orleans, responded to this reviewResponded April 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2017</t>
+  </si>
+  <si>
+    <t>They canceled my room then told me when I said I needed a room that all that was available was a queen size bed! Other thing wrong with it was it was in a bad area so I'm happy they canceled my reservation! Next time I will call from the plane.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r471761806-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>471761806</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>ITS true you get wat you pay for 
+but not really cause one night was $149(Mardi Gras time)
+Do not stop even!!!! if your sleepy... drunk.... broke.... worst hotel ever !!!!
+CHECK IN: took 1just to check in HR the device they use to verify ID/DL was not working about 6 people in lobby just waiting...
+1st night AC DONT WORK no other rooms good thing I was on 2nd floor I had to keep window open.....
+ they gave someone the SAME ROOM !!!!!!!!   people were knocking on my door saying it was their room.  good thing I was in their with all the locks on they could have came in with all my belongings in there. I asked the front desk if I would have not been there would they the strangers had been able to go in she said YES.
+2nd night... AC don't work maintenance came touch something still don't work  
+3rd night... AC don't work maintenance came touch something still don't work
+someone threw  up in elevator it has been there 2 days now...
+4th night THIS IS THE TOPPER!!!!
+I went down stairs and added this night cause everything was booked MARD GRAS
+I paid 
+the Young man gave me my receipt print out
+SO I go back to my room to sleep
+house keeping knocks and tells me I need to check out
+so I call downstairs the same guy I checked in with...ITS true you get wat you pay for but not really cause one night was $149(Mardi Gras time)Do not stop even!!!! if your sleepy... drunk.... broke.... worst hotel ever !!!!CHECK IN: took 1just to check in HR the device they use to verify ID/DL was not working about 6 people in lobby just waiting...1st night AC DONT WORK no other rooms good thing I was on 2nd floor I had to keep window open..... they gave someone the SAME ROOM !!!!!!!!   people were knocking on my door saying it was their room.  good thing I was in their with all the locks on they could have came in with all my belongings in there. I asked the front desk if I would have not been there would they the strangers had been able to go in she said YES.2nd night... AC don't work maintenance came touch something still don't work  3rd night... AC don't work maintenance came touch something still don't worksomeone threw  up in elevator it has been there 2 days now...4th night THIS IS THE TOPPER!!!!I went down stairs and added this night cause everything was booked MARD GRASI paid the Young man gave me my receipt print outSO I go back to my room to sleephouse keeping knocks and tells me I need to check outso I call downstairs the same guy I checked in with tells me OH I DONT SHOW YOU IN THE system I told him I have my receipt do I need to come down there and show you he says I GUESS SOTHIS IS IT!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!I go down there he starts arguing with me like we are at the local BAR with the manager CANDY standing right there.  Then they pass a few words and he tells here cause I DONT CARE !!!!!she was embarrassed so she says to me i Will credit your last night YEA RIGHT this was February 24thit is now March 31stshe kept telling me 15 business dayscalled her like 3 times..... then I start speaking with another employee( I think her name is something like Alicia) cause Candy was always conveniently out.  She so say called Candy &amp; corporate.  Tells me 5 to 7 business days that was on 3/22.....I call today 3/31 to tell them I never received a refund and I have come to the conclusion that I'm not but I just wanted to pretty much let them know I guess it was all a LIEshe tells me I need to call corporateIM DONE I JUST HUNG UPMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>ITS true you get wat you pay for 
+but not really cause one night was $149(Mardi Gras time)
+Do not stop even!!!! if your sleepy... drunk.... broke.... worst hotel ever !!!!
+CHECK IN: took 1just to check in HR the device they use to verify ID/DL was not working about 6 people in lobby just waiting...
+1st night AC DONT WORK no other rooms good thing I was on 2nd floor I had to keep window open.....
+ they gave someone the SAME ROOM !!!!!!!!   people were knocking on my door saying it was their room.  good thing I was in their with all the locks on they could have came in with all my belongings in there. I asked the front desk if I would have not been there would they the strangers had been able to go in she said YES.
+2nd night... AC don't work maintenance came touch something still don't work  
+3rd night... AC don't work maintenance came touch something still don't work
+someone threw  up in elevator it has been there 2 days now...
+4th night THIS IS THE TOPPER!!!!
+I went down stairs and added this night cause everything was booked MARD GRAS
+I paid 
+the Young man gave me my receipt print out
+SO I go back to my room to sleep
+house keeping knocks and tells me I need to check out
+so I call downstairs the same guy I checked in with...ITS true you get wat you pay for but not really cause one night was $149(Mardi Gras time)Do not stop even!!!! if your sleepy... drunk.... broke.... worst hotel ever !!!!CHECK IN: took 1just to check in HR the device they use to verify ID/DL was not working about 6 people in lobby just waiting...1st night AC DONT WORK no other rooms good thing I was on 2nd floor I had to keep window open..... they gave someone the SAME ROOM !!!!!!!!   people were knocking on my door saying it was their room.  good thing I was in their with all the locks on they could have came in with all my belongings in there. I asked the front desk if I would have not been there would they the strangers had been able to go in she said YES.2nd night... AC don't work maintenance came touch something still don't work  3rd night... AC don't work maintenance came touch something still don't worksomeone threw  up in elevator it has been there 2 days now...4th night THIS IS THE TOPPER!!!!I went down stairs and added this night cause everything was booked MARD GRASI paid the Young man gave me my receipt print outSO I go back to my room to sleephouse keeping knocks and tells me I need to check outso I call downstairs the same guy I checked in with tells me OH I DONT SHOW YOU IN THE system I told him I have my receipt do I need to come down there and show you he says I GUESS SOTHIS IS IT!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!I go down there he starts arguing with me like we are at the local BAR with the manager CANDY standing right there.  Then they pass a few words and he tells here cause I DONT CARE !!!!!she was embarrassed so she says to me i Will credit your last night YEA RIGHT this was February 24thit is now March 31stshe kept telling me 15 business dayscalled her like 3 times..... then I start speaking with another employee( I think her name is something like Alicia) cause Candy was always conveniently out.  She so say called Candy &amp; corporate.  Tells me 5 to 7 business days that was on 3/22.....I call today 3/31 to tell them I never received a refund and I have come to the conclusion that I'm not but I just wanted to pretty much let them know I guess it was all a LIEshe tells me I need to call corporateIM DONE I JUST HUNG UPMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r467959024-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>467959024</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Lazy, Unclean, and unprepared service</t>
+  </si>
+  <si>
+    <t>I don't expect much from any hotel/motel I stay at. I'm a college student trying to save some cash, and I have stayed in many 1- star inns. My experience in Motel 6, New Orleans was sad. The staff was reasonably friendly, but the rooms came without lining in the trash cans, trash all over the room, a dirty toilet, zero soap, and lacked very reasonable outlet space. When we requested towels and soap, the front desk informed us that they didn't have any soap, and then gave us two hand towels. Also, I'm sure it was listed in the hotel amenities, but the room comes with no microwave, fridge, coffee maker, etc, which didn't help to drive down the room cost. Lastly, the fact that they charge for Wi-Fi is ridiculous, as I thought it was standard for most modern hotels to provide it for free. Like I said, I am not picky whatsoever when choosing hotels/motels, but this experience was one to remember. We didn't even check if they had breakfast before leaving, we were very eager to check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 New Orleans, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>I don't expect much from any hotel/motel I stay at. I'm a college student trying to save some cash, and I have stayed in many 1- star inns. My experience in Motel 6, New Orleans was sad. The staff was reasonably friendly, but the rooms came without lining in the trash cans, trash all over the room, a dirty toilet, zero soap, and lacked very reasonable outlet space. When we requested towels and soap, the front desk informed us that they didn't have any soap, and then gave us two hand towels. Also, I'm sure it was listed in the hotel amenities, but the room comes with no microwave, fridge, coffee maker, etc, which didn't help to drive down the room cost. Lastly, the fact that they charge for Wi-Fi is ridiculous, as I thought it was standard for most modern hotels to provide it for free. Like I said, I am not picky whatsoever when choosing hotels/motels, but this experience was one to remember. We didn't even check if they had breakfast before leaving, we were very eager to check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r467863205-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>467863205</t>
+  </si>
+  <si>
+    <t>Cheap hotel - wished I would have paid more for a better location</t>
+  </si>
+  <si>
+    <t>We stayed 1 night before our cruise and 2 nights after. After the first night I wish we could have canceled our post-cruise reservation, but sadly we reserved with "no-refund cancellation". The first night, we walked into a room with dead bugs (gnats- I think) on the counter. The room also was missing the swing-bolt lock for the door and there was not a 'Do Not Disturb" tag for door. After our cruise, we had to stand in line for 20 minutes with 8 other people because they said they were short staffed and were waiting for clean rooms. My friend had to go to the restroom BAD, but they said that she had to wait till she got in her room (even though I saw a staff restroom through the office). She ended up walking outside to the hotel next door. When we finally got to our room, none of the towels were put away. They were laying on the corner of the table. On the last night, our key would not work - we had to wait in line AGAIN with 6 other people who all had to have their keys reset.  It is also important to note three things: 1) there was not a hair dryer in the room or any shampoo. 2) the AC was not working very well. 3) Although the hotel was only around 10 miles from the Cruise port / French Quarter -...We stayed 1 night before our cruise and 2 nights after. After the first night I wish we could have canceled our post-cruise reservation, but sadly we reserved with "no-refund cancellation". The first night, we walked into a room with dead bugs (gnats- I think) on the counter. The room also was missing the swing-bolt lock for the door and there was not a 'Do Not Disturb" tag for door. After our cruise, we had to stand in line for 20 minutes with 8 other people because they said they were short staffed and were waiting for clean rooms. My friend had to go to the restroom BAD, but they said that she had to wait till she got in her room (even though I saw a staff restroom through the office). She ended up walking outside to the hotel next door. When we finally got to our room, none of the towels were put away. They were laying on the corner of the table. On the last night, our key would not work - we had to wait in line AGAIN with 6 other people who all had to have their keys reset.  It is also important to note three things: 1) there was not a hair dryer in the room or any shampoo. 2) the AC was not working very well. 3) Although the hotel was only around 10 miles from the Cruise port / French Quarter - it took at least 30 minutes. Several times there was an accident on the bridge and we were stuck in traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed 1 night before our cruise and 2 nights after. After the first night I wish we could have canceled our post-cruise reservation, but sadly we reserved with "no-refund cancellation". The first night, we walked into a room with dead bugs (gnats- I think) on the counter. The room also was missing the swing-bolt lock for the door and there was not a 'Do Not Disturb" tag for door. After our cruise, we had to stand in line for 20 minutes with 8 other people because they said they were short staffed and were waiting for clean rooms. My friend had to go to the restroom BAD, but they said that she had to wait till she got in her room (even though I saw a staff restroom through the office). She ended up walking outside to the hotel next door. When we finally got to our room, none of the towels were put away. They were laying on the corner of the table. On the last night, our key would not work - we had to wait in line AGAIN with 6 other people who all had to have their keys reset.  It is also important to note three things: 1) there was not a hair dryer in the room or any shampoo. 2) the AC was not working very well. 3) Although the hotel was only around 10 miles from the Cruise port / French Quarter -...We stayed 1 night before our cruise and 2 nights after. After the first night I wish we could have canceled our post-cruise reservation, but sadly we reserved with "no-refund cancellation". The first night, we walked into a room with dead bugs (gnats- I think) on the counter. The room also was missing the swing-bolt lock for the door and there was not a 'Do Not Disturb" tag for door. After our cruise, we had to stand in line for 20 minutes with 8 other people because they said they were short staffed and were waiting for clean rooms. My friend had to go to the restroom BAD, but they said that she had to wait till she got in her room (even though I saw a staff restroom through the office). She ended up walking outside to the hotel next door. When we finally got to our room, none of the towels were put away. They were laying on the corner of the table. On the last night, our key would not work - we had to wait in line AGAIN with 6 other people who all had to have their keys reset.  It is also important to note three things: 1) there was not a hair dryer in the room or any shampoo. 2) the AC was not working very well. 3) Although the hotel was only around 10 miles from the Cruise port / French Quarter - it took at least 30 minutes. Several times there was an accident on the bridge and we were stuck in traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r464076743-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>464076743</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>After reading the reviews we were a little leary of staying here but with the All Stars in town the same weekend as our cruise we didn't have many choices. The hotel is on a service road along the highway so there is going to be road noise. We were a few blocks from restaurants and the ever needed Walmart.   The hotel was well lit and plenty of staff for check in. We felt safe and we were able to park our car under the window area of the room so no worries about the car. This is a Motel 6 so to expect anything else is not fair. This is not a hotel we would choose for an extended stay but it was quite clean and comfortable for the night. If in town for 1 night again we would stay here. It is an easy off and on from the hwy and just minutes from downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>After reading the reviews we were a little leary of staying here but with the All Stars in town the same weekend as our cruise we didn't have many choices. The hotel is on a service road along the highway so there is going to be road noise. We were a few blocks from restaurants and the ever needed Walmart.   The hotel was well lit and plenty of staff for check in. We felt safe and we were able to park our car under the window area of the room so no worries about the car. This is a Motel 6 so to expect anything else is not fair. This is not a hotel we would choose for an extended stay but it was quite clean and comfortable for the night. If in town for 1 night again we would stay here. It is an easy off and on from the hwy and just minutes from downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r460184331-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>460184331</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>The location is in a industrial area</t>
+  </si>
+  <si>
+    <t>The staff was great. The location was minutes from where the tornado hit. The building and old and somewhat worn. The rooms were clean, and furniture outdated. The area was very dark arriving at night alone was scary. I had a reservation for a week and stayed the 1 required night, and checked out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r433004834-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>433004834</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for......which is a good value</t>
+  </si>
+  <si>
+    <t>This is Motel 6, very basic accommodations for a reasonable price. The room is very basic with a small flat screen TV, but no WIFI, fridge or microwave. The mattress and pillows were surprisingly comfortable. Cleanliness and upkeep is average: bedspread had stains, there were some ants around, and dings and scratches on the furniture. Furnishings are VERY basic. Bed-sheets and pillowcases were clean. Bathroom only has soap, no shampoo. Overall positive experience given the price.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r424938781-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>424938781</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Just The Basics</t>
+  </si>
+  <si>
+    <t>Okay room. Pretty standard and clean for Motel 6. Clean. Decent bed. Flat screen tv. No wifi (the network was down and you would have had to pay for it anyway). No breakfast. There was a guest laundry but the machines were $2 each.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r417340781-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>417340781</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Old Mildew Smell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trip advisor had some nice things to say about this place, I decided that I will give it a try since I drove 17.5 hours needed sleep. The smell hit me Omg. I asked did they have towels because all of the towels were dingy and old. This is ridiculous I remember when motel 6 was the place to go. This is my 3rd motel 6 that was very very poorly maintained. Then the door was  like it had been broken smh. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r405501152-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>405501152</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Horrible service</t>
+  </si>
+  <si>
+    <t>Don't stay here service was horrible room  and the  the staff was horrible the staff was horrible no Wi-fi unless you pay for it as the sign says free Wi-Fi don't stay here unless you have to never again</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r405186960-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>405186960</t>
+  </si>
+  <si>
+    <t>Cheap, but no breakfast or WiFi</t>
+  </si>
+  <si>
+    <t>On a road trip across the united states my fiancé and I were recommended to stay at Motel 6 because it is the cheapest hotel chain. We found this location just 10 minutes from downtown New Orleans and we were thrilled, only $60 a night! However, there was no free Wi-Fi and no breakfast. The front desk has a sign that says free Wi-Fi and when asked about it we were informed that we could purchase Wi-Fi for $2.99 a person. Seriously? What hotel doesn't have Wi-Fi? McDonald's has Wi-Fi. We found that we were better off paying more for a hotel with breakfast and Wi-Fi. With that being said, our room was newly renovated and the front desk staff was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>On a road trip across the united states my fiancé and I were recommended to stay at Motel 6 because it is the cheapest hotel chain. We found this location just 10 minutes from downtown New Orleans and we were thrilled, only $60 a night! However, there was no free Wi-Fi and no breakfast. The front desk has a sign that says free Wi-Fi and when asked about it we were informed that we could purchase Wi-Fi for $2.99 a person. Seriously? What hotel doesn't have Wi-Fi? McDonald's has Wi-Fi. We found that we were better off paying more for a hotel with breakfast and Wi-Fi. With that being said, our room was newly renovated and the front desk staff was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r404683693-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>404683693</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Really good service, standard motel.</t>
+  </si>
+  <si>
+    <t>The staff and service were really helpful and great and there were a lot of parking spaces available outside, the rooms were pretty bare minimum standard motel rooms but thats why you pay the cheap price, has all you need but nothing special. Must pay for wifi.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r400854453-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>400854453</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>No Regrets!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had such a great experience here when I visited a few weeks ago. The staff were really professional and helpful when I needed to learn about New Orleans. The space was clean and comfortable! Will definitely be visiting again! I encourage you to bring friends and family!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r398341637-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>398341637</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Service was awesome!!!</t>
+  </si>
+  <si>
+    <t>Loved everything about my stay this place is definitely a great place to stay and it's only 15 minutes from downtown New Orleans. That way you can be close but far away from all the busy streets. The arrival was safe and the check was a breeze! I will definitely be staying here again! Love the people</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r388674682-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>388674682</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Don't stay here unless you have too</t>
+  </si>
+  <si>
+    <t>Tho it looks clean it's not. Woke up in middle of night to a saturated floor from the humidity.  I really should say WET.  Almost fell walking to bathroom.  Try to use the sink the water won't go down.  We mopped up the wet floor to get to sink. Towel was filthy. This was not told to us when rented.  This hotel is in Jensen La.  Forget it</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r381745876-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>381745876</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Worst trip ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our first room was dirty and the AC wasn't working. The AC was broken in our second and third room as well. The clerk NEVER appologized for our inconvenience. We finally gave up and requested a full refund from Hotels.com. My parents were traveling with us, they didn't have any problems with their AC, and they were in bed by 9:40pm, so they stayed   </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r375968687-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>375968687</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Upon check in I called the front desk for an extra pillow for my son and I was told they have no extra pillows. I requested an extra towel for him and was told they don't have that either. It's odd any hotel would allow you to book a room for three people and only give allow you 2 towels and 2 pillows.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r370753829-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>370753829</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>Just what I needed! Nice and quiet.</t>
+  </si>
+  <si>
+    <t>Clean rooms.... Quiet and safe. Great price.. I'll be back! Front desk clerks were a wealth of info and gave me the best places to eat ! Who doesn't like to eat! Only downside , too many construction worker trucks. Couldn't find decent parking. Probably best to have a designated area for them. Other than that.... Awesome!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r367517300-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>367517300</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I visited this property last summer and returned this month, staff was very professional and helpful with providing maps and guidance for the area. The housekeeper that cleaned our room was very attentive to our needs. This is a beautiful property and management is doing an awesome job turning things around.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r366726802-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>366726802</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Hanging out after cruise</t>
+  </si>
+  <si>
+    <t>This place is a mess! Floor was dirty and no towels upon check in. The front desk advised that the towels were washing. The room door deadbolt waa broken but was told how to maneuver door. Fire alarm went off early am but no one gave a why or advised guests if it was all clear. We ended up having to stay another night because all hotels were booked. After paying foe the room we returned to our key not working. My fiancée had to clown to get ua back in the room. I will not stay at another Motel 6 again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r363713462-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>363713462</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>I would stay here without any hesitation, it was great</t>
+  </si>
+  <si>
+    <t>Stayed here for almost a week with 3 adults, 2 kids and 2 dogs.  This is one of the renovated Motel 6's with the hardwood floors and new bedding.  Keep in mind that it is still a Motel 6 but for what we needed it was perfect.  The staff was incredibly nice.  There was security present almost every time we walked the dogs, which was all hours.  The rooms were clean and the grounds and common areas were nicely maintained.We were on the third floor and had non-smoking, adjoining rooms.  The elevator was a little slow but we weren't expecting an elevator so it was a treat.My favorite part of this hotel was the staff.  Everyone from the cleaning crew, the front desk and security were always very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for almost a week with 3 adults, 2 kids and 2 dogs.  This is one of the renovated Motel 6's with the hardwood floors and new bedding.  Keep in mind that it is still a Motel 6 but for what we needed it was perfect.  The staff was incredibly nice.  There was security present almost every time we walked the dogs, which was all hours.  The rooms were clean and the grounds and common areas were nicely maintained.We were on the third floor and had non-smoking, adjoining rooms.  The elevator was a little slow but we weren't expecting an elevator so it was a treat.My favorite part of this hotel was the staff.  Everyone from the cleaning crew, the front desk and security were always very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r357306033-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>357306033</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Quick trip!</t>
+  </si>
+  <si>
+    <t>Great staff! The bed could be better quality n more pillows I woke up with a stiff neck. Location is good! they have security for over night.a variety of thing from the vending machines good for the price.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r356219143-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>356219143</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and decent for the price </t>
+  </si>
+  <si>
+    <t>They must have improved things since previous reviews. Hotel, room and lobby is clean and looks and smells nice. My room was fine, clean although there were some small maintenance problems, like sink stopper not going down. The only problem I had was housekeeping service. They didn't have towels in room when we arrived, and they didn't clean up the room after we decided to stay a second night. Overall, I can't complain. It was clean, safe and all around good quality typical of Motel 6. Would stay here again with my family. Btw, one of those terrible reviews was for the Motel 6 in Harvey, which is not the same hotel listed here. MoreShow less</t>
+  </si>
+  <si>
+    <t>They must have improved things since previous reviews. Hotel, room and lobby is clean and looks and smells nice. My room was fine, clean although there were some small maintenance problems, like sink stopper not going down. The only problem I had was housekeeping service. They didn't have towels in room when we arrived, and they didn't clean up the room after we decided to stay a second night. Overall, I can't complain. It was clean, safe and all around good quality typical of Motel 6. Would stay here again with my family. Btw, one of those terrible reviews was for the Motel 6 in Harvey, which is not the same hotel listed here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r291666695-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>291666695</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Good but no free Wifi</t>
+  </si>
+  <si>
+    <t>The only let down was that on our travels, this was the one place we used the room the most, yet we had no Wifi.  Had to try and used the hotel next doors but the signal was obviously not very good at all.  The room was nice and clean, a lot brighter than most other places we stayed during our 3 weeks in the States.  Although one unusual thing to point out, our bathroom door was too big and wouldn't shut properly...!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r289709028-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>289709028</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Great Place, No Complaints</t>
+  </si>
+  <si>
+    <t>Stayed here on a Short Spring Break stop to N.O. It was decent. No frill, budget stay but hey, that's what I paid for so that's what I expected. The hotel was updated and nice. The room was clean. We had clean towels, tv, and coffee in the morning (you have to go get from the lobby though). The front desk staff were nice and friendly and the location was not bad (not too far from French Quarter, French market, Bourbon St. etc). The area was safe and on service rd (pretty much by a Home Depot and car lot I think-I do remember it's off a main rd.) I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Stayed here on a Short Spring Break stop to N.O. It was decent. No frill, budget stay but hey, that's what I paid for so that's what I expected. The hotel was updated and nice. The room was clean. We had clean towels, tv, and coffee in the morning (you have to go get from the lobby though). The front desk staff were nice and friendly and the location was not bad (not too far from French Quarter, French market, Bourbon St. etc). The area was safe and on service rd (pretty much by a Home Depot and car lot I think-I do remember it's off a main rd.) I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r289498331-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>289498331</t>
+  </si>
+  <si>
+    <t>Beware....don't stop!</t>
+  </si>
+  <si>
+    <t>Not a great area. When arrived police on site. A woman threatened my wife as we drove in. Smells like urine in hallways. Of you decide to stay. Sleep with one eye open. Staff to to helpful. Talking to the officer that was there that last night was worse there. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 New Orleans, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Not a great area. When arrived police on site. A woman threatened my wife as we drove in. Smells like urine in hallways. Of you decide to stay. Sleep with one eye open. Staff to to helpful. Talking to the officer that was there that last night was worse there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r281032385-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>281032385</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Poor service</t>
+  </si>
+  <si>
+    <t>The rooms were nice till we pulled the sheets back to see pubic hairs still in sheets. Went to desk and asked for new sheets to be told they were all locked up. Tried to give me blanket instead. Finally another guy (possibly manager) overheard and said something to him he appeared with sheets. Had to go back to get sheet that goes on bed first and for an hour sign said will be back shortly. Finally after guy came back he was adamant that they didn't have anymore sheets so we got to sleep on a blanket with our one sheet and one new pillow that he gave to us. I didn't mind replacing sheets but when he refused to give me new ones I got upset. Also, marks on headboard of greasy heads shows lack of cleaning. Should have flipped till i got a refund but completely exhausted leads to "dealing".MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were nice till we pulled the sheets back to see pubic hairs still in sheets. Went to desk and asked for new sheets to be told they were all locked up. Tried to give me blanket instead. Finally another guy (possibly manager) overheard and said something to him he appeared with sheets. Had to go back to get sheet that goes on bed first and for an hour sign said will be back shortly. Finally after guy came back he was adamant that they didn't have anymore sheets so we got to sleep on a blanket with our one sheet and one new pillow that he gave to us. I didn't mind replacing sheets but when he refused to give me new ones I got upset. Also, marks on headboard of greasy heads shows lack of cleaning. Should have flipped till i got a refund but completely exhausted leads to "dealing".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r279282562-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>279282562</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Alright for a cheap place</t>
+  </si>
+  <si>
+    <t>It is a Motel 6, and during Mardi Gras, it was one of the more affordable places to crash. Since we were not planning to stay in, anyway, we went for it.The check-in process took a while, but I cannot solely put the blame on their staff. A guy ahead of us put his reservation under his ex-girlfriend's name but now showed up with another girl. (I mean, seriously, dude? Who does that?) The staff were very friendly and they eventually were able to sort it out. But this took only 20 minutes. I am unsure how this could have been made better, but perhaps another person or two helping guests check in during busy season would have been a good idea.I liked that they had a wood laminate for flooring instead of a carpet. I just think for a 2-star place, this is a good idea since any smoke or other unpleasant smell will not linger too long. The bed was on the firmer side, which I was not a big fan of, but overall, it is not that bad.It is about 15 minutes away from the French Quarter, but if you are on a budget, this Motel 6 is not that awful of a choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>It is a Motel 6, and during Mardi Gras, it was one of the more affordable places to crash. Since we were not planning to stay in, anyway, we went for it.The check-in process took a while, but I cannot solely put the blame on their staff. A guy ahead of us put his reservation under his ex-girlfriend's name but now showed up with another girl. (I mean, seriously, dude? Who does that?) The staff were very friendly and they eventually were able to sort it out. But this took only 20 minutes. I am unsure how this could have been made better, but perhaps another person or two helping guests check in during busy season would have been a good idea.I liked that they had a wood laminate for flooring instead of a carpet. I just think for a 2-star place, this is a good idea since any smoke or other unpleasant smell will not linger too long. The bed was on the firmer side, which I was not a big fan of, but overall, it is not that bad.It is about 15 minutes away from the French Quarter, but if you are on a budget, this Motel 6 is not that awful of a choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r273062190-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>273062190</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Not a great choice</t>
+  </si>
+  <si>
+    <t>Not the best place on the outside.  Armed security guard makes one wonder about the overall safety.  Room smelled, possibly cigarette smoke despite request for non-smoking room, but they were totally sold out so moving wasn't an option.  Door to the bathroom was hanging crooked so couldn't be closed.  Actual beds were comfortable though.  Ok in a pinch, but you might wish to look elsewhere.  A bit of a drive if you're interested in going to the French Quarter or other parts of New Orleans.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 New Orleans, responded to this reviewResponded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Not the best place on the outside.  Armed security guard makes one wonder about the overall safety.  Room smelled, possibly cigarette smoke despite request for non-smoking room, but they were totally sold out so moving wasn't an option.  Door to the bathroom was hanging crooked so couldn't be closed.  Actual beds were comfortable though.  Ok in a pinch, but you might wish to look elsewhere.  A bit of a drive if you're interested in going to the French Quarter or other parts of New Orleans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r264343417-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>264343417</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>Had booked here for a few nights with friends during a trip. Upon arrival it was apparent this hotel would not be suitable for an enjoyable stay. Thankfully we were able to cancel our reservation without cost and we ended up booking rooms in the city which were much better and cost marginally more. Poor location, can't see why any self respecting person would stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 New Orleans, responded to this reviewResponded April 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2015</t>
+  </si>
+  <si>
+    <t>Had booked here for a few nights with friends during a trip. Upon arrival it was apparent this hotel would not be suitable for an enjoyable stay. Thankfully we were able to cancel our reservation without cost and we ended up booking rooms in the city which were much better and cost marginally more. Poor location, can't see why any self respecting person would stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r261438958-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>261438958</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Smells like pee</t>
+  </si>
+  <si>
+    <t>This place is recently remodeled. New modern furniture and 26 inch samsung television. There are about 20 channels to choose from if you plan on watching tv. No matter how many guest you list you will only be given 2 towels. The vending machines are empty there's literally nothing in them. For a few more dollars go to a place that serves breakfast and has better cable. The security is very friendly but the front desk not so much! The carpet smells like piss! Here with my fiancé and two kids because there was a gas leak. I wish the landlord hand spent 20 more dollars!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r261366206-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>261366206</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Birthday get away on a budget</t>
+  </si>
+  <si>
+    <t>Spacious room, clean and close to the bus route several stores and eateries within walking distance. Carpet less was great feature as we had a toddler with us comfortable bed. Good value for the money</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r253736258-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>253736258</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>My Stay at Motel 6</t>
+  </si>
+  <si>
+    <t>This was my worst experience in years.The toliet seat was not connected to the toliet.It didn't even have screws.Do not go to this motel and if you do don't expect much. The staff was kind but the motel itself is really substandard in many areas.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r253439478-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>253439478</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>Exactly what was expected at this price point</t>
+  </si>
+  <si>
+    <t>After doing A LOT of research on places to stay near downtown while on a budget, I finally decided on this Motel 6. The price was great. The location was decent (around a 20 minute and $20 cab ride into downtown). My wife and I had no complaints on the room's cleanliness (and my wife is nuts over hotel cleanliness). I felt very comfortable parking my truck in the gated and covered parking lot, especially since the immediate area seemed a little less than desirable. If you're on a budget and want to spend your hard earned money downtown rather than on lodging, go with this hotel. If price isn't important, I'd recommend getting closer to downtown in a more reputable part of NOLA.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>After doing A LOT of research on places to stay near downtown while on a budget, I finally decided on this Motel 6. The price was great. The location was decent (around a 20 minute and $20 cab ride into downtown). My wife and I had no complaints on the room's cleanliness (and my wife is nuts over hotel cleanliness). I felt very comfortable parking my truck in the gated and covered parking lot, especially since the immediate area seemed a little less than desirable. If you're on a budget and want to spend your hard earned money downtown rather than on lodging, go with this hotel. If price isn't important, I'd recommend getting closer to downtown in a more reputable part of NOLA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r250257023-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>250257023</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>UGH</t>
+  </si>
+  <si>
+    <t>Welcome to the land of disappointment, sketchy loud patrons, and "stick it to ya marketing tricks".  After driving 10 hrs my wife and I needed to grab a few hours of sleep.   Saw $49.99 on the billboard in large red font and we proceeded to the hotel.  We checked in around 1am and the lobby was filled with some real characters.  Glad they had guard on duty kind of characters.  The hotel had a room available but had the nerve to charge us extra ($10 for my wife to join me).  What a scam! We got to the terrible room, strip the bed of everything but the sheets and slept in our clothes.  I'll sleep in my car before I stay in this place again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Welcome to the land of disappointment, sketchy loud patrons, and "stick it to ya marketing tricks".  After driving 10 hrs my wife and I needed to grab a few hours of sleep.   Saw $49.99 on the billboard in large red font and we proceeded to the hotel.  We checked in around 1am and the lobby was filled with some real characters.  Glad they had guard on duty kind of characters.  The hotel had a room available but had the nerve to charge us extra ($10 for my wife to join me).  What a scam! We got to the terrible room, strip the bed of everything but the sheets and slept in our clothes.  I'll sleep in my car before I stay in this place again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r250104495-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>250104495</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay for a short stay- better than most MOTELS </t>
+  </si>
+  <si>
+    <t>We stayed here for two nights mainly becauae almost EVERY hotel was booked! When we arrived the front desk clerk wasnt exactly friendly but she wasnt rude either. Parking lot was VERY well lit. Our room was on the 2nd floor kinda close to the elevator so it was a little noisy because the walls are so thin!! Air conditioning was broke but im a big outdoor girl so me n the kids just opened the windows since the temp was nice. Rooms looked updated and clean (the bed spread could've used some ironing because it was severely wrinkled,  but at least I knew they'd sat in a dryer and been clean :-) the shower was nice and hot but the towels were super thin and we only had two. Laundry and ice machine qorked on our floor but i noticed ppl xoming down from other floors to get ice so im not aure if those worled or not. The first night (Saturday) it got pretty noisy in the parking lot when the drunk partiers were coming in (nothing unusual for nola no matter what hotel though) but was pretty quiet the next night except for the horrible smell of some "organic" smokes. It filled the hallway and normally I would've said something but my kids and I were about to go to sleep and leaving the next morning so I didnt care at that point. You could definetlt tell...We stayed here for two nights mainly becauae almost EVERY hotel was booked! When we arrived the front desk clerk wasnt exactly friendly but she wasnt rude either. Parking lot was VERY well lit. Our room was on the 2nd floor kinda close to the elevator so it was a little noisy because the walls are so thin!! Air conditioning was broke but im a big outdoor girl so me n the kids just opened the windows since the temp was nice. Rooms looked updated and clean (the bed spread could've used some ironing because it was severely wrinkled,  but at least I knew they'd sat in a dryer and been clean :-) the shower was nice and hot but the towels were super thin and we only had two. Laundry and ice machine qorked on our floor but i noticed ppl xoming down from other floors to get ice so im not aure if those worled or not. The first night (Saturday) it got pretty noisy in the parking lot when the drunk partiers were coming in (nothing unusual for nola no matter what hotel though) but was pretty quiet the next night except for the horrible smell of some "organic" smokes. It filled the hallway and normally I would've said something but my kids and I were about to go to sleep and leaving the next morning so I didnt care at that point. You could definetlt tell it's one of those places that are selling out of rooms in one night bc of the partiers just stopping in. But for the price if you just need somewhere to get a shower and sleep (beds were comfortable) its great. Far enough from the crowded downtown but close enough. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights mainly becauae almost EVERY hotel was booked! When we arrived the front desk clerk wasnt exactly friendly but she wasnt rude either. Parking lot was VERY well lit. Our room was on the 2nd floor kinda close to the elevator so it was a little noisy because the walls are so thin!! Air conditioning was broke but im a big outdoor girl so me n the kids just opened the windows since the temp was nice. Rooms looked updated and clean (the bed spread could've used some ironing because it was severely wrinkled,  but at least I knew they'd sat in a dryer and been clean :-) the shower was nice and hot but the towels were super thin and we only had two. Laundry and ice machine qorked on our floor but i noticed ppl xoming down from other floors to get ice so im not aure if those worled or not. The first night (Saturday) it got pretty noisy in the parking lot when the drunk partiers were coming in (nothing unusual for nola no matter what hotel though) but was pretty quiet the next night except for the horrible smell of some "organic" smokes. It filled the hallway and normally I would've said something but my kids and I were about to go to sleep and leaving the next morning so I didnt care at that point. You could definetlt tell...We stayed here for two nights mainly becauae almost EVERY hotel was booked! When we arrived the front desk clerk wasnt exactly friendly but she wasnt rude either. Parking lot was VERY well lit. Our room was on the 2nd floor kinda close to the elevator so it was a little noisy because the walls are so thin!! Air conditioning was broke but im a big outdoor girl so me n the kids just opened the windows since the temp was nice. Rooms looked updated and clean (the bed spread could've used some ironing because it was severely wrinkled,  but at least I knew they'd sat in a dryer and been clean :-) the shower was nice and hot but the towels were super thin and we only had two. Laundry and ice machine qorked on our floor but i noticed ppl xoming down from other floors to get ice so im not aure if those worled or not. The first night (Saturday) it got pretty noisy in the parking lot when the drunk partiers were coming in (nothing unusual for nola no matter what hotel though) but was pretty quiet the next night except for the horrible smell of some "organic" smokes. It filled the hallway and normally I would've said something but my kids and I were about to go to sleep and leaving the next morning so I didnt care at that point. You could definetlt tell it's one of those places that are selling out of rooms in one night bc of the partiers just stopping in. But for the price if you just need somewhere to get a shower and sleep (beds were comfortable) its great. Far enough from the crowded downtown but close enough. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r247506184-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>247506184</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The WORST front desk Hustler </t>
+  </si>
+  <si>
+    <t>Notice I said hustler and not clerk. I wish her name was on her tag and I would surely post it. Our story: my niece and I arrived a little after 1pm on the 12/31. The lady told us that our room was not ready and to come back around 3:30. I asked her was everything guaranteed and if we needed to go ahead and pay. She told us that everything was okay just be back in time. We came back at 3 and she told us we still needed to wait until 3:30. At the same time a guy walks in and ask if there are any rooms available and she tells him that it depends on how much he has! All of a sudden at 3:30 OUR double room is now a single room. We show her our confirmation email and she tells us that the two double beds in the email stood for two adults not two beds. She couldn't even look me in the face with that lie. After she charged another couple $240 we left. Until they get rid of her avoid the place and go to the studio 6 right behind it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Notice I said hustler and not clerk. I wish her name was on her tag and I would surely post it. Our story: my niece and I arrived a little after 1pm on the 12/31. The lady told us that our room was not ready and to come back around 3:30. I asked her was everything guaranteed and if we needed to go ahead and pay. She told us that everything was okay just be back in time. We came back at 3 and she told us we still needed to wait until 3:30. At the same time a guy walks in and ask if there are any rooms available and she tells him that it depends on how much he has! All of a sudden at 3:30 OUR double room is now a single room. We show her our confirmation email and she tells us that the two double beds in the email stood for two adults not two beds. She couldn't even look me in the face with that lie. After she charged another couple $240 we left. Until they get rid of her avoid the place and go to the studio 6 right behind it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r241764161-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>241764161</t>
+  </si>
+  <si>
+    <t>11/27/2014</t>
+  </si>
+  <si>
+    <t>Mixed feelings</t>
+  </si>
+  <si>
+    <t>The good: the hotel wasnt expensive, the bed was good, the rooms were clean and the shower was good. The bad: the location isn't much and the folks in the neighbouring room were noisy with crowds in the hallway and slamming doors. The rooms are updated so thats a plus, couldnt find myself in previous bad reviews regarding this so take that into consideration. The hotel is about a 15 minute drive to downtown so can't really complain about that. When we stayed there we had quite a storm outside and found the outside window was leaking. All things considered its good value for money.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r240118649-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>240118649</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Avoid this place! We stayed here to conserve money as we were on a cross country trip.  We got what we paid for! The rooms smelled horrible and the location of the hotel was in a bad area. I asked the front end clerk why they haven't cleaned up the area since the last hurricane and she said this area has always been like this..</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r235211017-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>235211017</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Reasonable</t>
+  </si>
+  <si>
+    <t>Good place for the night. Read previous reviews &amp; was a little iffy on this one. But we were pleasantly surprised. Our room was updated evidently. Clean room &amp; sheets. About 15 minutes from French Quarters depending on traffic. Fair continental breakfast. We would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r217411723-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>217411723</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Avoid this property</t>
+  </si>
+  <si>
+    <t>I have stayed in Motel 6s all over the country because I travel with my dog. This is the worst I've ever stayed at (and there have been some "iffy" ones). There was blood - not just stains - and hair on the sheets and there was no bedspread on the bed, just a blanket. I called down to the front desk, and after 15 minutes of waiting, I had to go down. There was a very helpful staffer who was on her way out of work but at least helped me change to clean sheets, but there was still not a clean bedspread available. The rest of the room was dirty as well. I had to go past several scruffy looking guys hanging around outside the side entrance door to get in. If you want to stay at a Motel 6 in New Orleans, try the one on Old Gentilly.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I have stayed in Motel 6s all over the country because I travel with my dog. This is the worst I've ever stayed at (and there have been some "iffy" ones). There was blood - not just stains - and hair on the sheets and there was no bedspread on the bed, just a blanket. I called down to the front desk, and after 15 minutes of waiting, I had to go down. There was a very helpful staffer who was on her way out of work but at least helped me change to clean sheets, but there was still not a clean bedspread available. The rest of the room was dirty as well. I had to go past several scruffy looking guys hanging around outside the side entrance door to get in. If you want to stay at a Motel 6 in New Orleans, try the one on Old Gentilly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r215445803-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>215445803</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't do it! </t>
+  </si>
+  <si>
+    <t>This motel is in the process of being renovated. There were buckets of water every where because of the leaks. The vending machines and ice machine were out of order. My first room had a water leak in the bathroom so I had to switch rooms. The remote control in the second room didn't work. Both rooms had dirty blankets. The elevator stopped working for 30 minutes. Guests on the 3rd floor were informed that the water would be off for 3 hours due to repairs. Our room cards were deactivated twice. Last but not least, the whole building had a smell. The one good thing was the friendly staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>This motel is in the process of being renovated. There were buckets of water every where because of the leaks. The vending machines and ice machine were out of order. My first room had a water leak in the bathroom so I had to switch rooms. The remote control in the second room didn't work. Both rooms had dirty blankets. The elevator stopped working for 30 minutes. Guests on the 3rd floor were informed that the water would be off for 3 hours due to repairs. Our room cards were deactivated twice. Last but not least, the whole building had a smell. The one good thing was the friendly staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r204355898-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>204355898</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Good value, safe area</t>
+  </si>
+  <si>
+    <t>We booked this hotel at the last minute, during Jazz Fest, so we knew we would be a long way out of town. We had a queen room which was big enough and were on the 2nd floor at the end of a corridor, so it was quiet.  The hotel had a pool which we did use and which was fine.   You do really need a car here as it's a fair distance to any restaurants but in fact we used the number 64 RTA bus from around the corner in Bullard Drive (about a 15-20 minute walk from the hotel or you could park your car near the bus stop) several times to get to and from town/the French quarter and although it's a fairly long ride, about 40 minutes, it is way better than trying to find somewhere to park during Jazz Fest or Mardi Gras.  It's $3 all up for a day pass till 4am next day for any amount of bus and street car rides, and you can buy that on the bus. If you don't mind being this far out of the city, and have a car, this is a pretty good place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked this hotel at the last minute, during Jazz Fest, so we knew we would be a long way out of town. We had a queen room which was big enough and were on the 2nd floor at the end of a corridor, so it was quiet.  The hotel had a pool which we did use and which was fine.   You do really need a car here as it's a fair distance to any restaurants but in fact we used the number 64 RTA bus from around the corner in Bullard Drive (about a 15-20 minute walk from the hotel or you could park your car near the bus stop) several times to get to and from town/the French quarter and although it's a fairly long ride, about 40 minutes, it is way better than trying to find somewhere to park during Jazz Fest or Mardi Gras.  It's $3 all up for a day pass till 4am next day for any amount of bus and street car rides, and you can buy that on the bus. If you don't mind being this far out of the city, and have a car, this is a pretty good place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r203537704-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>203537704</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Pot and cigarette smoke unsafe</t>
+  </si>
+  <si>
+    <t>Ok first we are two females in our twenties .We get to our room on the 3rd floor and the adjacent rooms doors are open with cigarette and pot smoke billowing out and the the loud voices of intoxicated men coming form the rooms. Our room has marks on the door near the lock where some one tried to break in. The reeks of smoke. The toilets makes this weird noise all night. The wifi I had to PAY for kicks you off literally every five minutes. Called And tries to get moved to room on the 1st floor and to no evail. The parking lot is completely dark and creepy no street lights had to use a flashlight when walking to to building. So yeah sleeping with my taser on the bedside , the window open to air out the smoke. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ok first we are two females in our twenties .We get to our room on the 3rd floor and the adjacent rooms doors are open with cigarette and pot smoke billowing out and the the loud voices of intoxicated men coming form the rooms. Our room has marks on the door near the lock where some one tried to break in. The reeks of smoke. The toilets makes this weird noise all night. The wifi I had to PAY for kicks you off literally every five minutes. Called And tries to get moved to room on the 1st floor and to no evail. The parking lot is completely dark and creepy no street lights had to use a flashlight when walking to to building. So yeah sleeping with my taser on the bedside , the window open to air out the smoke. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r202971966-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>202971966</t>
+  </si>
+  <si>
+    <t>04/27/2014</t>
+  </si>
+  <si>
+    <t>Easy Stay In The Big Easy .</t>
+  </si>
+  <si>
+    <t>When it come to New Orleans , there is a lot of uneasy feelings about this city . We came here to the Jazz Fest , checked into the motel 6 , greeted by very friendly staff . Decent hotel . The only draw back is that there is a lack of restaurants here , so a car will be need . There are some in walking distance , but , this in New Orleans ..... Truck parking on site , makes it all the more convenient . Decent looking pool . If and when we return , motel 6 will be the place to stay .</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r202859386-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>202859386</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>Should have slept on the street!</t>
+  </si>
+  <si>
+    <t>Worst hotel ive ever stayed at! rude staff, the room rarely got cleaned and the bathroom was a disgrace, had $500 stolen from my room, elevator stunk of marijuana and my friend was offered a prostitute by what must have been an organised ring at the hotel that the staff were happily working with! No refund offered when I was there even when I E-mailed the Motel 6 when I got home they obviously didnt care as they never got back to me, just awful, if you want a cheap hotel just buy a large box and stay in there at least that way you will get your moneys worth! No one should spend money on this product would not recommend to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Worst hotel ive ever stayed at! rude staff, the room rarely got cleaned and the bathroom was a disgrace, had $500 stolen from my room, elevator stunk of marijuana and my friend was offered a prostitute by what must have been an organised ring at the hotel that the staff were happily working with! No refund offered when I was there even when I E-mailed the Motel 6 when I got home they obviously didnt care as they never got back to me, just awful, if you want a cheap hotel just buy a large box and stay in there at least that way you will get your moneys worth! No one should spend money on this product would not recommend to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r200481132-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>200481132</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Cheap, but there's a reason</t>
+  </si>
+  <si>
+    <t>Two friends and I stayed in this hotel the weekend of WrestleMania 30. Between $200 tickets to the event, $600 plane tickets and paying for a rental car, we were looking for a deal on a hotel room, and thought we got it with this. 
+We pull in on Friday night, and there are some odd people just hanging out in the lobby. While I'm checking in, a woman comes in and says there's a fight in the parking lot. The desk attendant didn't seem very surprised.
+We get to our room, which is about what we expected. Not overly dirty, but not the cleanest place, either. The TV was a small 15-inch tube television that would only turn on by hitting one of the channel buttons because the power button was shoved so far back into the set that it didn't even work, and the remote was useless. My friend's pillow had brown stains on the pillowcase.
+We quickly decided that outside of sleep, we would spend as little time as possible in this hotel. We went out that night, slept, woke up, went out almost all day on Saturday, came back and slept again. On Sunday, we woke up to go to the event. At one point that morning, I went down to the front desk to get some fresh towels. As I walked back up the stairs to my room, I spotted a man profusely vomiting in...Two friends and I stayed in this hotel the weekend of WrestleMania 30. Between $200 tickets to the event, $600 plane tickets and paying for a rental car, we were looking for a deal on a hotel room, and thought we got it with this. We pull in on Friday night, and there are some odd people just hanging out in the lobby. While I'm checking in, a woman comes in and says there's a fight in the parking lot. The desk attendant didn't seem very surprised.We get to our room, which is about what we expected. Not overly dirty, but not the cleanest place, either. The TV was a small 15-inch tube television that would only turn on by hitting one of the channel buttons because the power button was shoved so far back into the set that it didn't even work, and the remote was useless. My friend's pillow had brown stains on the pillowcase.We quickly decided that outside of sleep, we would spend as little time as possible in this hotel. We went out that night, slept, woke up, went out almost all day on Saturday, came back and slept again. On Sunday, we woke up to go to the event. At one point that morning, I went down to the front desk to get some fresh towels. As I walked back up the stairs to my room, I spotted a man profusely vomiting in the stairwell. I reported it to the front desk attendant who, again, didn't seem very shocked. Later in the morning, my friend had water drip down from the ceiling onto his head as he was walking down the hallway.On our way out the door, we were asked by several people for rides into town. The answer for everyone was a resounding no, because I didn't want to spend a single, solitary second with any of them.This place's problem is the clientele, which is driven there by the low price. If you're going there for a weekend with your buddies where you don't plan on being in the hotel much besides sleeping and showering, like we were, it sucks, but it came out to $50 each for all three of us for the weekend. However, if you're going with women, children, or plan on having a decent amount of down time in the hotel, I would not consider this hotel at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Two friends and I stayed in this hotel the weekend of WrestleMania 30. Between $200 tickets to the event, $600 plane tickets and paying for a rental car, we were looking for a deal on a hotel room, and thought we got it with this. 
+We pull in on Friday night, and there are some odd people just hanging out in the lobby. While I'm checking in, a woman comes in and says there's a fight in the parking lot. The desk attendant didn't seem very surprised.
+We get to our room, which is about what we expected. Not overly dirty, but not the cleanest place, either. The TV was a small 15-inch tube television that would only turn on by hitting one of the channel buttons because the power button was shoved so far back into the set that it didn't even work, and the remote was useless. My friend's pillow had brown stains on the pillowcase.
+We quickly decided that outside of sleep, we would spend as little time as possible in this hotel. We went out that night, slept, woke up, went out almost all day on Saturday, came back and slept again. On Sunday, we woke up to go to the event. At one point that morning, I went down to the front desk to get some fresh towels. As I walked back up the stairs to my room, I spotted a man profusely vomiting in...Two friends and I stayed in this hotel the weekend of WrestleMania 30. Between $200 tickets to the event, $600 plane tickets and paying for a rental car, we were looking for a deal on a hotel room, and thought we got it with this. We pull in on Friday night, and there are some odd people just hanging out in the lobby. While I'm checking in, a woman comes in and says there's a fight in the parking lot. The desk attendant didn't seem very surprised.We get to our room, which is about what we expected. Not overly dirty, but not the cleanest place, either. The TV was a small 15-inch tube television that would only turn on by hitting one of the channel buttons because the power button was shoved so far back into the set that it didn't even work, and the remote was useless. My friend's pillow had brown stains on the pillowcase.We quickly decided that outside of sleep, we would spend as little time as possible in this hotel. We went out that night, slept, woke up, went out almost all day on Saturday, came back and slept again. On Sunday, we woke up to go to the event. At one point that morning, I went down to the front desk to get some fresh towels. As I walked back up the stairs to my room, I spotted a man profusely vomiting in the stairwell. I reported it to the front desk attendant who, again, didn't seem very shocked. Later in the morning, my friend had water drip down from the ceiling onto his head as he was walking down the hallway.On our way out the door, we were asked by several people for rides into town. The answer for everyone was a resounding no, because I didn't want to spend a single, solitary second with any of them.This place's problem is the clientele, which is driven there by the low price. If you're going there for a weekend with your buddies where you don't plan on being in the hotel much besides sleeping and showering, like we were, it sucks, but it came out to $50 each for all three of us for the weekend. However, if you're going with women, children, or plan on having a decent amount of down time in the hotel, I would not consider this hotel at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r199922842-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>199922842</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>This was the most horrible, filthy, trashy and scary hot that I have EVER walked into.</t>
+  </si>
+  <si>
+    <t>We should have know when we entered by the filthy outfits the employes wore, not to mention the scary looking people lurking to check in. The room had no blow dryer plus just filthy and smelled moldy. My parents room had the comforter and nasty sheets on the floor, my friends room had hair all in the shower and was filthy as well. I can't say enough how nasty the employee's uniform was. We checked in and cancelled immediately. Could not get out of that crack house fast enough.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r197436519-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>197436519</t>
+  </si>
+  <si>
+    <t>03/14/2014</t>
+  </si>
+  <si>
+    <t>PLEASE PLEASE NO KIDS HERE</t>
+  </si>
+  <si>
+    <t>I am very sorry 1st of all to my daughter for having her stay at such a shady and seedy place. I witnessed a prostitution ring being run front the front lobby, and they seemed to have the help of the night desk clerk.. It was very noisy as men where in and out and people out in the hall all times of night..The rooms were smelly and  beds were never made up, garbage never emptied.. This place needs to be shut down or under new management..I would never stay here again as I felt totally unsafe..BE AWARE OF YOUR SURROUNDINGS!!!PLEASE!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r189689967-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>189689967</t>
+  </si>
+  <si>
+    <t>01/04/2014</t>
+  </si>
+  <si>
+    <t>Sleepless in New Orleans</t>
+  </si>
+  <si>
+    <t>We have stayed at Motel 6 numerous times and have been satisfied more times than not.  This time was our last.  It started out that they forgot to reserve the room we requested and was confirmed, so we had to wait several hours to check into our room.  Finally in we were quick  shower and change.  Disappointment number 2.  There wasn't any water pressure.  Starving we headed out for dinner on Bourbon St.   Coming in late that night we headed to bed, but sleep never came.  The mattress was horrible.   Hard as a rock.  Tried to find another hotel the next morning but it was New Year's Eve and the Sugar Bowl...so no luck...we were stuck.  Three sleepless nights and several showers later we left and will never return to another Motel 6.  Highlight of the trip...Sooner's win over Alabama in the Sugar Bowl.  45-31.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>We have stayed at Motel 6 numerous times and have been satisfied more times than not.  This time was our last.  It started out that they forgot to reserve the room we requested and was confirmed, so we had to wait several hours to check into our room.  Finally in we were quick  shower and change.  Disappointment number 2.  There wasn't any water pressure.  Starving we headed out for dinner on Bourbon St.   Coming in late that night we headed to bed, but sleep never came.  The mattress was horrible.   Hard as a rock.  Tried to find another hotel the next morning but it was New Year's Eve and the Sugar Bowl...so no luck...we were stuck.  Three sleepless nights and several showers later we left and will never return to another Motel 6.  Highlight of the trip...Sooner's win over Alabama in the Sugar Bowl.  45-31.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r186989998-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>186989998</t>
+  </si>
+  <si>
+    <t>12/07/2013</t>
+  </si>
+  <si>
+    <t>Should have slept in my car</t>
+  </si>
+  <si>
+    <t>There were three dogs in the two rooms across from mine. One of them barked non-stop for over an hour and another dog joined in whenever anyone walked down the corridor. The front desk lady was sincerely concerned about this and made repeated attempts to reach the nitwit owners who left their dogs alone in unfamiliar rooms. Finally, I asked for and received another room in a different part of the building. The area around the bed in the second room absolutely reeked of urine. By that time I was too tired to change rooms again and just resigned myself to the odor. The tour bus parked outside my window periodically started itself through the night, making even sleep a challenge.MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 New Orleans, responded to this reviewResponded December 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2013</t>
+  </si>
+  <si>
+    <t>There were three dogs in the two rooms across from mine. One of them barked non-stop for over an hour and another dog joined in whenever anyone walked down the corridor. The front desk lady was sincerely concerned about this and made repeated attempts to reach the nitwit owners who left their dogs alone in unfamiliar rooms. Finally, I asked for and received another room in a different part of the building. The area around the bed in the second room absolutely reeked of urine. By that time I was too tired to change rooms again and just resigned myself to the odor. The tour bus parked outside my window periodically started itself through the night, making even sleep a challenge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r184604843-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>184604843</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Please don't be fooled!!!</t>
+  </si>
+  <si>
+    <t>This motel was absolutely horrible!!! The front desk clerk was rude and horrible. The room was the size of my bathroom..Checked in checked out! THen she had the nerve to ask me if i used the bathroom in the room cause she was gonna charge me if i did!!! Please pay the extra cost to stay somewhere nicer or you will be near crack heads and hookers</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r184372212-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>184372212</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Don't be fooled.</t>
+  </si>
+  <si>
+    <t>Disaster. From the time my girlfriend and I arrived, it was a disaster. Felt like I was checking into work release. From the stained carpet, to the chipped up shower, to the small outdated television, to the smell...there was a beer box in the front lobby's garbage can...The most hood people checking in there....AVOID AT ALL COSTS. Pay the extra dollar. It looks like a dorm room. We checked in and out in 10 minutes.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r175445204-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>175445204</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Very friendly nice stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very helpful and friendly staff here. A young lady at the front desk went out of her way to find a place for us to eat when we rolled into town late and checked in. Much appreciated. The pool was nice and the room was pretty clean. Overall one of the better motel 6 I have encountered.  Location is not bad quick 15 min drive to downtown and quarter. I would definately stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r169383041-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>169383041</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>One of the nicer ones.</t>
+  </si>
+  <si>
+    <t>Overall, a very nice Motel 6 (we stay in a lot of them because we travel with dogs and they are always pet friendly).  No obvious problems with the room.  A 10 minute drive to the French Quarter.  Fairly quiet area.  There were a few strange people lurking... particularly one guy in a pick-up that creepily watched me and did "the slow drive-by" as I walked my dog.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r156443168-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>156443168</t>
+  </si>
+  <si>
+    <t>04/02/2013</t>
+  </si>
+  <si>
+    <t>seems to be newer</t>
+  </si>
+  <si>
+    <t>We've stayed in many motel 6's.  This is one of the nicer ones. Clean. Friendly.  Stayed in single queen bed room. Bathtub/shower good size (not tiny corner like in some motel 6's). Washer/dryer on each floor. 10 minute drive to french quarter. Extended stay motel 6 behind it.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r155539767-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>155539767</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>Good inexpensive alternative for New Orleans!</t>
+  </si>
+  <si>
+    <t>We went down for Superbowl, and wanted to stay close without a lot of expense. This was the place. Rode the bus in from Mcdonalds (5 min walk) for $1.50/one way or $3 for the day to include trolley in town.  It took about 30-40 min., back to hotel at night we took a taxi for about $30. Hotel staff had the lobby decorated for the game and had King Cake on game day. Wonderful experience.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r155454829-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>155454829</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Cheap and clean</t>
+  </si>
+  <si>
+    <t>Our hotel room was around $50 a night. We drove in to the French quarter each day, which was about a 15 minute drive. The parking at the hotel was inside a gated and well lit area. Area seemed safe. Our room was clean and had hot water and tv. No complaints. Wasn't really noisy being close to the interstate.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r154778061-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>154778061</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>Super Bowl Stay</t>
+  </si>
+  <si>
+    <t>Attending a Super Bowl is an expensive thing to due. We ended up stayed here at the Motel 6 because its prices were lower than all the hotels in New Orleans.  There were not a lot of options price wise, I would've stayed closer to the action if the price was better. However, it was only a 15-minute drive to the French Quarter, traffic wasn't bad until you hit the Quarter. The motel is in an area that was flooded by Katrina and is in the middle of re-building.  I agree with other travelers, this is a place to rest your head only. They do not provide shampoo, only hand soap. The bare minimums for motel stay, such as 2-towles and 2-wash cloths, 2-pillows, the bare minimum.  Wi-Fi was $2.99(+tax!) per device per day using access codes you purchase from the front desk and it's rarely fast enough to stream video but otherwise reliable. TVs were OLD 19" tube sets and many rooms still have the old-school Ma Bell type phones. The rooms are clean enough but be sure you check with the front desk. Service is outstanding even though the property itself is worn/tired. They switch us rooms because of a hole in the floor of the tube/shower. Place could use a good cleaning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Attending a Super Bowl is an expensive thing to due. We ended up stayed here at the Motel 6 because its prices were lower than all the hotels in New Orleans.  There were not a lot of options price wise, I would've stayed closer to the action if the price was better. However, it was only a 15-minute drive to the French Quarter, traffic wasn't bad until you hit the Quarter. The motel is in an area that was flooded by Katrina and is in the middle of re-building.  I agree with other travelers, this is a place to rest your head only. They do not provide shampoo, only hand soap. The bare minimums for motel stay, such as 2-towles and 2-wash cloths, 2-pillows, the bare minimum.  Wi-Fi was $2.99(+tax!) per device per day using access codes you purchase from the front desk and it's rarely fast enough to stream video but otherwise reliable. TVs were OLD 19" tube sets and many rooms still have the old-school Ma Bell type phones. The rooms are clean enough but be sure you check with the front desk. Service is outstanding even though the property itself is worn/tired. They switch us rooms because of a hole in the floor of the tube/shower. Place could use a good cleaning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r153788735-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>153788735</t>
+  </si>
+  <si>
+    <t>03/05/2013</t>
+  </si>
+  <si>
+    <t>Not as bad as you'd think from these reviews...</t>
+  </si>
+  <si>
+    <t>First of all, I stayed here because all the hotels in New Orleans were sold out for the conference I was attending.  If I had the option, I would've stayed closer to the action in a greater than one star property.  That being said, it was only a 15-20 minute drive to the convention center, little traffic, and a decent overall experience.The motel isn't in a rough area although you shouldn't be surprised to see/hear people hanging out and talking in the parking lot and common areas.  No obvious hookers or hoods on my visit, however.One thing's for sure...  This is a place to rest your head only.  They do not provide shampoo, only hand soap.  They have no irons or ironing boards.  They provide the bare minimum in towels.  Wi-Fi is $2.99(+tax!) per device per day using access codes you purchase from the front desk and it's rarely fast enough to stream video but otherwise reliable.  TVs are maybe 19" tube sets and many rooms still have the old-school Ma Bell type phones.The rooms are clean enough but be sure you check with the front desk.  Service is outstanding even though the property itself is worn/tired.  They don't like to give freebies but they will take care of room issues ASAP and they even switched my rooms before check-in due to one of my rooms in an adjoining pair needing a good carpet cleaning.MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all, I stayed here because all the hotels in New Orleans were sold out for the conference I was attending.  If I had the option, I would've stayed closer to the action in a greater than one star property.  That being said, it was only a 15-20 minute drive to the convention center, little traffic, and a decent overall experience.The motel isn't in a rough area although you shouldn't be surprised to see/hear people hanging out and talking in the parking lot and common areas.  No obvious hookers or hoods on my visit, however.One thing's for sure...  This is a place to rest your head only.  They do not provide shampoo, only hand soap.  They have no irons or ironing boards.  They provide the bare minimum in towels.  Wi-Fi is $2.99(+tax!) per device per day using access codes you purchase from the front desk and it's rarely fast enough to stream video but otherwise reliable.  TVs are maybe 19" tube sets and many rooms still have the old-school Ma Bell type phones.The rooms are clean enough but be sure you check with the front desk.  Service is outstanding even though the property itself is worn/tired.  They don't like to give freebies but they will take care of room issues ASAP and they even switched my rooms before check-in due to one of my rooms in an adjoining pair needing a good carpet cleaning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r148687600-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>148687600</t>
+  </si>
+  <si>
+    <t>01/03/2013</t>
+  </si>
+  <si>
+    <t>Prostitutes, wall to wall at the entrance. Very seedy, got a chill and kept on going!</t>
+  </si>
+  <si>
+    <t>Please be mindful of this information if you are staying at this place with family or even alone. I got a sick feeling in the pit of my stomach as I watched my autistic nephew staring and obviously disturbed by the site, of all of those scantily clothed young women standing in various poses at the foyer entrance to the hotel.  He said to me innocently, "I guess this doesn't look like a very good place to stay".  He was SO right.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r147425827-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>147425827</t>
+  </si>
+  <si>
+    <t>12/14/2012</t>
+  </si>
+  <si>
+    <t>Smoke Filled Shoe Box</t>
+  </si>
+  <si>
+    <t>The good part is the price. I booked a non smoking single room and when I arrived at this HUGE property of cubicles I couldn't believe how small the room  was. I have stayed at many many Motel 6 hotels across the nation but this was amazing at how tiny and smelly this room was.. barely big enough to fit a queen size be in .. seriously! I could have lived with that except the non smoking room reeked so bad of cigarette smoke apparently drifting up through the plumbing in the bath that the tiny room smelled as if you where inside an ashtray. The long narrow halls leading up to each tiny room where a bit depressing but the staff kept things tidy and organized. The front desk staff worked like dogs to keep the tiny "lobby" filled with people coming and going. When I checked out early it was no problem refunding my extra night which I appreciate. This property is a GIANT warehouse of tiny rooms at a cheap price.. if you need a place to stay for a night as your passing though and can't find anything else you can afford you might consider it as a last resort.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>The good part is the price. I booked a non smoking single room and when I arrived at this HUGE property of cubicles I couldn't believe how small the room  was. I have stayed at many many Motel 6 hotels across the nation but this was amazing at how tiny and smelly this room was.. barely big enough to fit a queen size be in .. seriously! I could have lived with that except the non smoking room reeked so bad of cigarette smoke apparently drifting up through the plumbing in the bath that the tiny room smelled as if you where inside an ashtray. The long narrow halls leading up to each tiny room where a bit depressing but the staff kept things tidy and organized. The front desk staff worked like dogs to keep the tiny "lobby" filled with people coming and going. When I checked out early it was no problem refunding my extra night which I appreciate. This property is a GIANT warehouse of tiny rooms at a cheap price.. if you need a place to stay for a night as your passing though and can't find anything else you can afford you might consider it as a last resort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r143002821-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>143002821</t>
+  </si>
+  <si>
+    <t>10/16/2012</t>
+  </si>
+  <si>
+    <t>Horrible experience, you get what you pay for, better off staying in your car.</t>
+  </si>
+  <si>
+    <t>Made online reservations, when we got there, room was dirty, not vacuumed, sheets dirty, bathroom was very disgusting. Staff needs customer service training. Checked out that same day and went elsewhere. Spend the extra money, its worth it. Will never come here again, this place made me sick to my stomach..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r142966722-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>142966722</t>
+  </si>
+  <si>
+    <t>Nice, Clean Place for the Budget Minded Traveler</t>
+  </si>
+  <si>
+    <t>Check in was simple!!  The place was clean.  The room was adequate.  No noise from the interstate and I had the very front room.All in all, a good experience.  I would stay here again.  For travelers who plan to drink in the French Quarter, it would be too far to drive and a VERY expensive taxi bank..........</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r142149015-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>142149015</t>
+  </si>
+  <si>
+    <t>10/06/2012</t>
+  </si>
+  <si>
+    <t>Better than the normal Motel 6</t>
+  </si>
+  <si>
+    <t>We stayed here just one night before our cruise. We got it for $60 with tax and that is a steal in the New Orleans area. I was afraid after staying at other Motel 6 in other states but this one was clean and worked out for us very well.  There is another Motel 6 in the area but WOW did that one look run down and wouldnt stay there.  I think this one must be new but i would reccomend this travelers just in the area for a brief stay. Its still 15 min from downtown so if you want to party you should look closer to that area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here just one night before our cruise. We got it for $60 with tax and that is a steal in the New Orleans area. I was afraid after staying at other Motel 6 in other states but this one was clean and worked out for us very well.  There is another Motel 6 in the area but WOW did that one look run down and wouldnt stay there.  I think this one must be new but i would reccomend this travelers just in the area for a brief stay. Its still 15 min from downtown so if you want to party you should look closer to that area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r141409111-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>141409111</t>
+  </si>
+  <si>
+    <t>09/27/2012</t>
+  </si>
+  <si>
+    <t>Dirty!!! Room Flooded!</t>
+  </si>
+  <si>
+    <t>We stayed here during our trip last weekend to see the Saints play. It was cheap and in budget! Upon arrival our room was not ready. We had to wait by the pool for 2 hours for our room to be cleaned. When we checked in the room was fairly clean. However the bathtub was disgusting! Filthy! We had left some bags of clothes under the sink over night, and discovered the next morning that the bathroom was flooded. Nothing in our room was leaking. Outside of our room the carpet was soaked...our guess is a busted pipe in the wall.  Our clothes were soaked and stinky! Then, on our last night we woke up in a SWEAT at 3am and discovered that the power to the hotel was out. They blamed it on the city of New Orleans stating that they shut everyone off for miles, when I walked to the street I could see that other businesses had electricity.  I could go on with the problems! We won’t be staying here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here during our trip last weekend to see the Saints play. It was cheap and in budget! Upon arrival our room was not ready. We had to wait by the pool for 2 hours for our room to be cleaned. When we checked in the room was fairly clean. However the bathtub was disgusting! Filthy! We had left some bags of clothes under the sink over night, and discovered the next morning that the bathroom was flooded. Nothing in our room was leaking. Outside of our room the carpet was soaked...our guess is a busted pipe in the wall.  Our clothes were soaked and stinky! Then, on our last night we woke up in a SWEAT at 3am and discovered that the power to the hotel was out. They blamed it on the city of New Orleans stating that they shut everyone off for miles, when I walked to the street I could see that other businesses had electricity.  I could go on with the problems! We won’t be staying here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r132682968-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>132682968</t>
+  </si>
+  <si>
+    <t>06/24/2012</t>
+  </si>
+  <si>
+    <t>just don't stay here!</t>
+  </si>
+  <si>
+    <t>Do not stay here!   After being a frequent guest at Motels 6 across the country, this property put me on a "cannot stay here list" saying that "something was missing from my room on a previous stay."  The could not identify the item or give specifics.   The very claim left me speechless, knowing that I always leave a room just as I found it.   The fact that I have stayed with Motel 6 as a business guest since 1987 means nothing to them.  What would anyone want from a Motel 6 room?  Cheap towels?   An ashtray?   Just avoid this property.   I, in response, will take my business to a higher quality brand!  My company will do the sameMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Do not stay here!   After being a frequent guest at Motels 6 across the country, this property put me on a "cannot stay here list" saying that "something was missing from my room on a previous stay."  The could not identify the item or give specifics.   The very claim left me speechless, knowing that I always leave a room just as I found it.   The fact that I have stayed with Motel 6 as a business guest since 1987 means nothing to them.  What would anyone want from a Motel 6 room?  Cheap towels?   An ashtray?   Just avoid this property.   I, in response, will take my business to a higher quality brand!  My company will do the sameMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r131080114-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>131080114</t>
+  </si>
+  <si>
+    <t>06/01/2012</t>
+  </si>
+  <si>
+    <t>Lots of maintenance issues</t>
+  </si>
+  <si>
+    <t>Note this is about the "Suites 6" property, not the regular M6 next door.
+I really wanted to like this place, really I did.  I'm a low-budget, generally low-expectations traveler and am staying at M6s about 1/2 the time on my cross-country tour.  My idea of luxury is an "extended stay" hotel/motel where I can do my own cooking, so I was really looking forward to an "extended stay" M6 - luxury at a bargain price!  :-)
+But....
+This property looked more or less OK when I checked in.  The staff was friendly and helpful throughout.  A reddish flag went up immediately when, while I was checking in, a guy came to the desk saying that the room he'd been given had not been cleaned and the A/C did not work.  But then, mistakes are made, right?
+My room looked OK - was clean and the A/C worked.  The first night there was quite a bit of banging and thumping from upstairs, as if someone was moving in or rearranging the furniture.  But it subsided and I slept well.  The next morning, I discovered that the outlets above the sink/counter did not work.  I also found that, after moving the coffee pot elsewhere, it did not work either.  After taking a shower, removing a towel from the rack (not violently, mind you) one end of the rack came off the wall - loose - and fell to the floor.  This...Note this is about the "Suites 6" property, not the regular M6 next door.I really wanted to like this place, really I did.  I'm a low-budget, generally low-expectations traveler and am staying at M6s about 1/2 the time on my cross-country tour.  My idea of luxury is an "extended stay" hotel/motel where I can do my own cooking, so I was really looking forward to an "extended stay" M6 - luxury at a bargain price!  :-)But....This property looked more or less OK when I checked in.  The staff was friendly and helpful throughout.  A reddish flag went up immediately when, while I was checking in, a guy came to the desk saying that the room he'd been given had not been cleaned and the A/C did not work.  But then, mistakes are made, right?My room looked OK - was clean and the A/C worked.  The first night there was quite a bit of banging and thumping from upstairs, as if someone was moving in or rearranging the furniture.  But it subsided and I slept well.  The next morning, I discovered that the outlets above the sink/counter did not work.  I also found that, after moving the coffee pot elsewhere, it did not work either.  After taking a shower, removing a towel from the rack (not violently, mind you) one end of the rack came off the wall - loose - and fell to the floor.  This was a minor thing, I put it back and I'm sure it's fallen off many, many times over the years because the mount to the wall is loose - later confirmed by a maintenance guy.  Later that day, I found that inside the microwave, the part that mates the carousel shaft to the tray was missing, therefore no rotation.  A minor thing, but something that even a cursory look-over by the staff would have revealed.  Likewise, the window has the remains of duct tape around the perimeter, tape that would have served no obvious purpose and that should have been taken down/scraped-off by housekeeping.The next day, my room was overlooked when it came time for cleaning and I had to exchange towels myself. When I pointed out these issues at the front desk, a maintenance guy came, fiddled with the towel rack, shrugged his shoulders about the tape, replaced the coffee maker (after asking me how long I'd been there and suggesting that I should have reported the problem immediately lest the staff think I broke it myself!), and did nothing about the outlet, saying that it was something I had to talk to "management" about.  Lastly, the $5/stay wireless internet access is abysmal.  I would lose the wifi connection over and over during a session, and would get asked over and over again to log in.  It was very frustrating for one who works on the net, and who counts on it for last-minute city research.  I can't recall having a worse wifi connection at a hotel.  The slip of paper they give you with your password specifically says that every device needs its own password (presumably your computer and phone wouldn't work with a single password), that you'll have to log in again every hour, and that your login will expire after some (unspecified) idle period.  Awful.Again, I have low expectations, but this cascade of failings is pretty unprecedented even for an M6.  Note also that unlike other extended stay hotels, you do not get a dishwasher (or dish soap) or an oven, though you do get a small cooktop.On the plus side: the property is fairly quiet and I slept well though I admit I wear earplugs.  The unit was generally clean though there's a bit of perma-stain on the vinyl in the kitchen.  The front-desk staff was pleasant and VERY helpful, eventually, without my asking, refunding the cost of a night's stay due to the above issues.  The property is a bit of a drive from the French Quarter if that's where you're going to visit, but is right off the highway (I10) that goes to the city so it's easy to get there.  Note that if you plan to spend a lot of time downtown, parking is expensive and you might actually save money by staying downtown.All things considered, I would not stay at this property again.  For anyone who does, I suggest that you do an immediate walk-through upon arrival to get a fully-functional room.    One and a half-stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>Note this is about the "Suites 6" property, not the regular M6 next door.
+I really wanted to like this place, really I did.  I'm a low-budget, generally low-expectations traveler and am staying at M6s about 1/2 the time on my cross-country tour.  My idea of luxury is an "extended stay" hotel/motel where I can do my own cooking, so I was really looking forward to an "extended stay" M6 - luxury at a bargain price!  :-)
+But....
+This property looked more or less OK when I checked in.  The staff was friendly and helpful throughout.  A reddish flag went up immediately when, while I was checking in, a guy came to the desk saying that the room he'd been given had not been cleaned and the A/C did not work.  But then, mistakes are made, right?
+My room looked OK - was clean and the A/C worked.  The first night there was quite a bit of banging and thumping from upstairs, as if someone was moving in or rearranging the furniture.  But it subsided and I slept well.  The next morning, I discovered that the outlets above the sink/counter did not work.  I also found that, after moving the coffee pot elsewhere, it did not work either.  After taking a shower, removing a towel from the rack (not violently, mind you) one end of the rack came off the wall - loose - and fell to the floor.  This...Note this is about the "Suites 6" property, not the regular M6 next door.I really wanted to like this place, really I did.  I'm a low-budget, generally low-expectations traveler and am staying at M6s about 1/2 the time on my cross-country tour.  My idea of luxury is an "extended stay" hotel/motel where I can do my own cooking, so I was really looking forward to an "extended stay" M6 - luxury at a bargain price!  :-)But....This property looked more or less OK when I checked in.  The staff was friendly and helpful throughout.  A reddish flag went up immediately when, while I was checking in, a guy came to the desk saying that the room he'd been given had not been cleaned and the A/C did not work.  But then, mistakes are made, right?My room looked OK - was clean and the A/C worked.  The first night there was quite a bit of banging and thumping from upstairs, as if someone was moving in or rearranging the furniture.  But it subsided and I slept well.  The next morning, I discovered that the outlets above the sink/counter did not work.  I also found that, after moving the coffee pot elsewhere, it did not work either.  After taking a shower, removing a towel from the rack (not violently, mind you) one end of the rack came off the wall - loose - and fell to the floor.  This was a minor thing, I put it back and I'm sure it's fallen off many, many times over the years because the mount to the wall is loose - later confirmed by a maintenance guy.  Later that day, I found that inside the microwave, the part that mates the carousel shaft to the tray was missing, therefore no rotation.  A minor thing, but something that even a cursory look-over by the staff would have revealed.  Likewise, the window has the remains of duct tape around the perimeter, tape that would have served no obvious purpose and that should have been taken down/scraped-off by housekeeping.The next day, my room was overlooked when it came time for cleaning and I had to exchange towels myself. When I pointed out these issues at the front desk, a maintenance guy came, fiddled with the towel rack, shrugged his shoulders about the tape, replaced the coffee maker (after asking me how long I'd been there and suggesting that I should have reported the problem immediately lest the staff think I broke it myself!), and did nothing about the outlet, saying that it was something I had to talk to "management" about.  Lastly, the $5/stay wireless internet access is abysmal.  I would lose the wifi connection over and over during a session, and would get asked over and over again to log in.  It was very frustrating for one who works on the net, and who counts on it for last-minute city research.  I can't recall having a worse wifi connection at a hotel.  The slip of paper they give you with your password specifically says that every device needs its own password (presumably your computer and phone wouldn't work with a single password), that you'll have to log in again every hour, and that your login will expire after some (unspecified) idle period.  Awful.Again, I have low expectations, but this cascade of failings is pretty unprecedented even for an M6.  Note also that unlike other extended stay hotels, you do not get a dishwasher (or dish soap) or an oven, though you do get a small cooktop.On the plus side: the property is fairly quiet and I slept well though I admit I wear earplugs.  The unit was generally clean though there's a bit of perma-stain on the vinyl in the kitchen.  The front-desk staff was pleasant and VERY helpful, eventually, without my asking, refunding the cost of a night's stay due to the above issues.  The property is a bit of a drive from the French Quarter if that's where you're going to visit, but is right off the highway (I10) that goes to the city so it's easy to get there.  Note that if you plan to spend a lot of time downtown, parking is expensive and you might actually save money by staying downtown.All things considered, I would not stay at this property again.  For anyone who does, I suggest that you do an immediate walk-through upon arrival to get a fully-functional room.    One and a half-stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r126597306-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>126597306</t>
+  </si>
+  <si>
+    <t>03/24/2012</t>
+  </si>
+  <si>
+    <t>Aceptable for the price</t>
+  </si>
+  <si>
+    <t>The place does not look particularly nice or particularly bad, it could be cleaner ... the room and the bathroom were spacious, the air conditioner was fine and the bed ok, I was all day out and only were in the room to rest for a while and go out again, so I never even turned on the TV.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r118525375-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>118525375</t>
+  </si>
+  <si>
+    <t>09/24/2011</t>
+  </si>
+  <si>
+    <t>"not bad for the price"</t>
+  </si>
+  <si>
+    <t>I was so skeptical at first, my cousin that lived there recommened this hotel and stated since you really want be in the hotel dont pay alot of money. I must say for the price we paid it was a decent hotel, the bathroom and rooms was clean, so that was certainly a plus. I didn't see any strange people hanging around the hotel so for the price I paid, I really can't complain. There is nothing special about this hotel so if you are looking for DoubleTree on for $42 dont stay here. I was here for a wedding so we only probably slept about 6hrs, most of the time we was on the run... the area was conveinent to resturants, we was about 15min away from Bourbon St..MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>I was so skeptical at first, my cousin that lived there recommened this hotel and stated since you really want be in the hotel dont pay alot of money. I must say for the price we paid it was a decent hotel, the bathroom and rooms was clean, so that was certainly a plus. I didn't see any strange people hanging around the hotel so for the price I paid, I really can't complain. There is nothing special about this hotel so if you are looking for DoubleTree on for $42 dont stay here. I was here for a wedding so we only probably slept about 6hrs, most of the time we was on the run... the area was conveinent to resturants, we was about 15min away from Bourbon St..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r117814264-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>117814264</t>
+  </si>
+  <si>
+    <t>09/07/2011</t>
+  </si>
+  <si>
+    <t>Not too shabby.</t>
+  </si>
+  <si>
+    <t>The room was clean. However, there is a mildew smell. The location is far, but perfect if you are on a budget. Staff was friendly &amp; helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r110364935-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>110364935</t>
+  </si>
+  <si>
+    <t>05/29/2011</t>
+  </si>
+  <si>
+    <t>Improvement but needs update"this is New Orleans"</t>
+  </si>
+  <si>
+    <t>excellent staff, very motivated. GM. seems very involved, rooms are clean as they can be. i was expecting more, like the one in biloxi, this is a world wide destination spot. i would think the company would have this as one of the best the company would offer. it is my opinion if this was done right it could increase sales across the board. hmmmm. food for thought.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r107583680-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>107583680</t>
+  </si>
+  <si>
+    <t>05/09/2011</t>
+  </si>
+  <si>
+    <t>Nice property for Motel 6, good value</t>
+  </si>
+  <si>
+    <t>Motel 6 has older properties with exterior entrances and newer ones with interior entrances.  This is one of the newer properties and for a Motel 6 it would be one of their nicer ones.  I would definitely stay here again.  There is a closer location to downtown New Orleans at Gentilly that  was sold out by the time I made my reservation but it also looked like a newer location.  I was here for JazzFest and compared to other options available for what I received, it was a good price.  The room was clean and I slept well each night.  During the day I was out and about.  I was able to hear road noice from the interstate the first night, but didn't notice it the other 3 nights.  There was minor wear and tear on the property.  The different workers at the desk were unable to give me directions to the race track where they have the festival which I thought was strange since it is so well known and brings in alot of tourist.  Also, the room didn't have a phone book that usually has area maps.  TV was smaller in size - possibly 20 inch.MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel 6 has older properties with exterior entrances and newer ones with interior entrances.  This is one of the newer properties and for a Motel 6 it would be one of their nicer ones.  I would definitely stay here again.  There is a closer location to downtown New Orleans at Gentilly that  was sold out by the time I made my reservation but it also looked like a newer location.  I was here for JazzFest and compared to other options available for what I received, it was a good price.  The room was clean and I slept well each night.  During the day I was out and about.  I was able to hear road noice from the interstate the first night, but didn't notice it the other 3 nights.  There was minor wear and tear on the property.  The different workers at the desk were unable to give me directions to the race track where they have the festival which I thought was strange since it is so well known and brings in alot of tourist.  Also, the room didn't have a phone book that usually has area maps.  TV was smaller in size - possibly 20 inch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r58258755-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>58258755</t>
+  </si>
+  <si>
+    <t>03/10/2010</t>
+  </si>
+  <si>
+    <t>Big Easy Disappointment</t>
+  </si>
+  <si>
+    <t>Motel 6 has always been a dependable choice for our family when we didn't want to blow the whole vaction budget on the room, but still wanted a decent place to stay.  The rooms we have stayed in with this chain have always been clean and functional and the staff has always been courteous and professional.  This property is the bad apple.The property itself looks relatively new and is in an area in NO that looks like it is trying to come back, but the place is very poorly maintained.  Windows and mirrors dirty, rugs not vacuumed, floors not mopped.  Careless repairs; lots of sloppy paint patches, etc.  Cleaning and maintainence in general was just sloppy and half-way complete.The young lady at reception was capable, but not overly helpful or friendly.  And there seemed to be lots of people just sort of hanging around the lobby and entrance for no particular reason.  There always seemed to be someone yelling somewhere in the building at any given time of the day or night.Luckily, we spent most of our stay away from the room.  It's a shame.  The location and price of this hotel were great, but it was actually depressing coming back to the room at night.  Not the worst motel in the world, but we won't be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>Motel 6 has always been a dependable choice for our family when we didn't want to blow the whole vaction budget on the room, but still wanted a decent place to stay.  The rooms we have stayed in with this chain have always been clean and functional and the staff has always been courteous and professional.  This property is the bad apple.The property itself looks relatively new and is in an area in NO that looks like it is trying to come back, but the place is very poorly maintained.  Windows and mirrors dirty, rugs not vacuumed, floors not mopped.  Careless repairs; lots of sloppy paint patches, etc.  Cleaning and maintainence in general was just sloppy and half-way complete.The young lady at reception was capable, but not overly helpful or friendly.  And there seemed to be lots of people just sort of hanging around the lobby and entrance for no particular reason.  There always seemed to be someone yelling somewhere in the building at any given time of the day or night.Luckily, we spent most of our stay away from the room.  It's a shame.  The location and price of this hotel were great, but it was actually depressing coming back to the room at night.  Not the worst motel in the world, but we won't be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d1203913-r44662151-Motel_6_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>44662151</t>
+  </si>
+  <si>
+    <t>09/26/2009</t>
+  </si>
+  <si>
+    <t>worst motel in the world</t>
+  </si>
+  <si>
+    <t>don;t go there period , they have blood stained mattress, some woman named pearl is very hishonest. this pkace is like going to hell</t>
+  </si>
+  <si>
+    <t>August 2009</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -558,6 +2312,5641 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" t="s">
+        <v>119</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>125</v>
+      </c>
+      <c r="X15" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>140</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>146</v>
+      </c>
+      <c r="X18" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>154</v>
+      </c>
+      <c r="O19" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>139</v>
+      </c>
+      <c r="O20" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>161</v>
+      </c>
+      <c r="X20" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>139</v>
+      </c>
+      <c r="O21" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>161</v>
+      </c>
+      <c r="X21" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>154</v>
+      </c>
+      <c r="O22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>161</v>
+      </c>
+      <c r="X22" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>154</v>
+      </c>
+      <c r="O23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>191</v>
+      </c>
+      <c r="O26" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" t="s">
+        <v>200</v>
+      </c>
+      <c r="L27" t="s">
+        <v>201</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" t="s">
+        <v>199</v>
+      </c>
+      <c r="K28" t="s">
+        <v>205</v>
+      </c>
+      <c r="L28" t="s">
+        <v>206</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>202</v>
+      </c>
+      <c r="O28" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" t="s">
+        <v>212</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>202</v>
+      </c>
+      <c r="O29" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" t="s">
+        <v>217</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>219</v>
+      </c>
+      <c r="J31" t="s">
+        <v>220</v>
+      </c>
+      <c r="K31" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" t="s">
+        <v>222</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>223</v>
+      </c>
+      <c r="O31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>224</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>225</v>
+      </c>
+      <c r="J32" t="s">
+        <v>226</v>
+      </c>
+      <c r="K32" t="s">
+        <v>227</v>
+      </c>
+      <c r="L32" t="s">
+        <v>228</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>223</v>
+      </c>
+      <c r="O32" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>230</v>
+      </c>
+      <c r="J33" t="s">
+        <v>231</v>
+      </c>
+      <c r="K33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L33" t="s">
+        <v>233</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>234</v>
+      </c>
+      <c r="O33" t="s">
+        <v>47</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>236</v>
+      </c>
+      <c r="J34" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" t="s">
+        <v>238</v>
+      </c>
+      <c r="L34" t="s">
+        <v>239</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>240</v>
+      </c>
+      <c r="O34" t="s">
+        <v>47</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" t="s">
+        <v>244</v>
+      </c>
+      <c r="L35" t="s">
+        <v>245</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>240</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J36" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" t="s">
+        <v>250</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>251</v>
+      </c>
+      <c r="O36" t="s">
+        <v>47</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>252</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>253</v>
+      </c>
+      <c r="J37" t="s">
+        <v>254</v>
+      </c>
+      <c r="K37" t="s">
+        <v>255</v>
+      </c>
+      <c r="L37" t="s">
+        <v>256</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>251</v>
+      </c>
+      <c r="O37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>258</v>
+      </c>
+      <c r="J38" t="s">
+        <v>259</v>
+      </c>
+      <c r="K38" t="s">
+        <v>260</v>
+      </c>
+      <c r="L38" t="s">
+        <v>261</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>262</v>
+      </c>
+      <c r="O38" t="s">
+        <v>47</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>264</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>265</v>
+      </c>
+      <c r="J39" t="s">
+        <v>266</v>
+      </c>
+      <c r="K39" t="s">
+        <v>267</v>
+      </c>
+      <c r="L39" t="s">
+        <v>268</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>269</v>
+      </c>
+      <c r="O39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>270</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>271</v>
+      </c>
+      <c r="J40" t="s">
+        <v>272</v>
+      </c>
+      <c r="K40" t="s">
+        <v>273</v>
+      </c>
+      <c r="L40" t="s">
+        <v>274</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>269</v>
+      </c>
+      <c r="O40" t="s">
+        <v>47</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>276</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>277</v>
+      </c>
+      <c r="J41" t="s">
+        <v>278</v>
+      </c>
+      <c r="K41" t="s">
+        <v>279</v>
+      </c>
+      <c r="L41" t="s">
+        <v>280</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>281</v>
+      </c>
+      <c r="O41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>282</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>283</v>
+      </c>
+      <c r="J42" t="s">
+        <v>284</v>
+      </c>
+      <c r="K42" t="s">
+        <v>285</v>
+      </c>
+      <c r="L42" t="s">
+        <v>286</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>287</v>
+      </c>
+      <c r="O42" t="s">
+        <v>47</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>289</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>290</v>
+      </c>
+      <c r="J43" t="s">
+        <v>284</v>
+      </c>
+      <c r="K43" t="s">
+        <v>291</v>
+      </c>
+      <c r="L43" t="s">
+        <v>292</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>281</v>
+      </c>
+      <c r="O43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>293</v>
+      </c>
+      <c r="X43" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>296</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>297</v>
+      </c>
+      <c r="J44" t="s">
+        <v>298</v>
+      </c>
+      <c r="K44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L44" t="s">
+        <v>300</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>262</v>
+      </c>
+      <c r="O44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>302</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>303</v>
+      </c>
+      <c r="J45" t="s">
+        <v>304</v>
+      </c>
+      <c r="K45" t="s">
+        <v>305</v>
+      </c>
+      <c r="L45" t="s">
+        <v>306</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>307</v>
+      </c>
+      <c r="O45" t="s">
+        <v>119</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>309</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>310</v>
+      </c>
+      <c r="J46" t="s">
+        <v>311</v>
+      </c>
+      <c r="K46" t="s">
+        <v>312</v>
+      </c>
+      <c r="L46" t="s">
+        <v>313</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>314</v>
+      </c>
+      <c r="O46" t="s">
+        <v>47</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>315</v>
+      </c>
+      <c r="X46" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>318</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>319</v>
+      </c>
+      <c r="J47" t="s">
+        <v>320</v>
+      </c>
+      <c r="K47" t="s">
+        <v>321</v>
+      </c>
+      <c r="L47" t="s">
+        <v>322</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>323</v>
+      </c>
+      <c r="O47" t="s">
+        <v>119</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>324</v>
+      </c>
+      <c r="X47" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>327</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>328</v>
+      </c>
+      <c r="J48" t="s">
+        <v>329</v>
+      </c>
+      <c r="K48" t="s">
+        <v>330</v>
+      </c>
+      <c r="L48" t="s">
+        <v>331</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>287</v>
+      </c>
+      <c r="O48" t="s">
+        <v>47</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>332</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>333</v>
+      </c>
+      <c r="J49" t="s">
+        <v>334</v>
+      </c>
+      <c r="K49" t="s">
+        <v>335</v>
+      </c>
+      <c r="L49" t="s">
+        <v>336</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>287</v>
+      </c>
+      <c r="O49" t="s">
+        <v>47</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>337</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>338</v>
+      </c>
+      <c r="J50" t="s">
+        <v>339</v>
+      </c>
+      <c r="K50" t="s">
+        <v>340</v>
+      </c>
+      <c r="L50" t="s">
+        <v>341</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>342</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>343</v>
+      </c>
+      <c r="J51" t="s">
+        <v>344</v>
+      </c>
+      <c r="K51" t="s">
+        <v>345</v>
+      </c>
+      <c r="L51" t="s">
+        <v>346</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>347</v>
+      </c>
+      <c r="O51" t="s">
+        <v>34</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>350</v>
+      </c>
+      <c r="J52" t="s">
+        <v>351</v>
+      </c>
+      <c r="K52" t="s">
+        <v>352</v>
+      </c>
+      <c r="L52" t="s">
+        <v>353</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>354</v>
+      </c>
+      <c r="O52" t="s">
+        <v>34</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>356</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>357</v>
+      </c>
+      <c r="J53" t="s">
+        <v>358</v>
+      </c>
+      <c r="K53" t="s">
+        <v>359</v>
+      </c>
+      <c r="L53" t="s">
+        <v>360</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>354</v>
+      </c>
+      <c r="O53" t="s">
+        <v>47</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>362</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>363</v>
+      </c>
+      <c r="J54" t="s">
+        <v>364</v>
+      </c>
+      <c r="K54" t="s">
+        <v>365</v>
+      </c>
+      <c r="L54" t="s">
+        <v>366</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>368</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>369</v>
+      </c>
+      <c r="J55" t="s">
+        <v>370</v>
+      </c>
+      <c r="K55" t="s">
+        <v>371</v>
+      </c>
+      <c r="L55" t="s">
+        <v>372</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>373</v>
+      </c>
+      <c r="O55" t="s">
+        <v>119</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>374</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>375</v>
+      </c>
+      <c r="J56" t="s">
+        <v>376</v>
+      </c>
+      <c r="K56" t="s">
+        <v>152</v>
+      </c>
+      <c r="L56" t="s">
+        <v>377</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>378</v>
+      </c>
+      <c r="O56" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>379</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>380</v>
+      </c>
+      <c r="J57" t="s">
+        <v>381</v>
+      </c>
+      <c r="K57" t="s">
+        <v>382</v>
+      </c>
+      <c r="L57" t="s">
+        <v>383</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>347</v>
+      </c>
+      <c r="O57" t="s">
+        <v>34</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>384</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>385</v>
+      </c>
+      <c r="J58" t="s">
+        <v>386</v>
+      </c>
+      <c r="K58" t="s">
+        <v>387</v>
+      </c>
+      <c r="L58" t="s">
+        <v>388</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>389</v>
+      </c>
+      <c r="O58" t="s">
+        <v>94</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>391</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>392</v>
+      </c>
+      <c r="J59" t="s">
+        <v>393</v>
+      </c>
+      <c r="K59" t="s">
+        <v>394</v>
+      </c>
+      <c r="L59" t="s">
+        <v>395</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>396</v>
+      </c>
+      <c r="O59" t="s">
+        <v>119</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>398</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>399</v>
+      </c>
+      <c r="J60" t="s">
+        <v>400</v>
+      </c>
+      <c r="K60" t="s">
+        <v>401</v>
+      </c>
+      <c r="L60" t="s">
+        <v>402</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>378</v>
+      </c>
+      <c r="O60" t="s">
+        <v>34</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>404</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s">
+        <v>405</v>
+      </c>
+      <c r="J61" t="s">
+        <v>406</v>
+      </c>
+      <c r="K61" t="s">
+        <v>407</v>
+      </c>
+      <c r="L61" t="s">
+        <v>408</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>410</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>411</v>
+      </c>
+      <c r="J62" t="s">
+        <v>412</v>
+      </c>
+      <c r="K62" t="s">
+        <v>413</v>
+      </c>
+      <c r="L62" t="s">
+        <v>414</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>415</v>
+      </c>
+      <c r="O62" t="s">
+        <v>34</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>416</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>417</v>
+      </c>
+      <c r="J63" t="s">
+        <v>418</v>
+      </c>
+      <c r="K63" t="s">
+        <v>419</v>
+      </c>
+      <c r="L63" t="s">
+        <v>420</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>421</v>
+      </c>
+      <c r="O63" t="s">
+        <v>119</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>423</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s">
+        <v>424</v>
+      </c>
+      <c r="J64" t="s">
+        <v>425</v>
+      </c>
+      <c r="K64" t="s">
+        <v>426</v>
+      </c>
+      <c r="L64" t="s">
+        <v>427</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>415</v>
+      </c>
+      <c r="O64" t="s">
+        <v>119</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>429</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s">
+        <v>430</v>
+      </c>
+      <c r="J65" t="s">
+        <v>431</v>
+      </c>
+      <c r="K65" t="s">
+        <v>432</v>
+      </c>
+      <c r="L65" t="s">
+        <v>433</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>434</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>435</v>
+      </c>
+      <c r="J66" t="s">
+        <v>436</v>
+      </c>
+      <c r="K66" t="s">
+        <v>437</v>
+      </c>
+      <c r="L66" t="s">
+        <v>438</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>421</v>
+      </c>
+      <c r="O66" t="s">
+        <v>47</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>439</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s">
+        <v>440</v>
+      </c>
+      <c r="J67" t="s">
+        <v>441</v>
+      </c>
+      <c r="K67" t="s">
+        <v>442</v>
+      </c>
+      <c r="L67" t="s">
+        <v>443</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>444</v>
+      </c>
+      <c r="O67" t="s">
+        <v>34</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>446</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s">
+        <v>447</v>
+      </c>
+      <c r="J68" t="s">
+        <v>448</v>
+      </c>
+      <c r="K68" t="s">
+        <v>449</v>
+      </c>
+      <c r="L68" t="s">
+        <v>450</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>444</v>
+      </c>
+      <c r="O68" t="s">
+        <v>94</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>451</v>
+      </c>
+      <c r="X68" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>454</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>455</v>
+      </c>
+      <c r="J69" t="s">
+        <v>456</v>
+      </c>
+      <c r="K69" t="s">
+        <v>457</v>
+      </c>
+      <c r="L69" t="s">
+        <v>458</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>389</v>
+      </c>
+      <c r="O69" t="s">
+        <v>34</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>459</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>460</v>
+      </c>
+      <c r="J70" t="s">
+        <v>461</v>
+      </c>
+      <c r="K70" t="s">
+        <v>462</v>
+      </c>
+      <c r="L70" t="s">
+        <v>463</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>389</v>
+      </c>
+      <c r="O70" t="s">
+        <v>34</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>464</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>465</v>
+      </c>
+      <c r="J71" t="s">
+        <v>466</v>
+      </c>
+      <c r="K71" t="s">
+        <v>467</v>
+      </c>
+      <c r="L71" t="s">
+        <v>468</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>469</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>470</v>
+      </c>
+      <c r="J72" t="s">
+        <v>471</v>
+      </c>
+      <c r="K72" t="s">
+        <v>472</v>
+      </c>
+      <c r="L72" t="s">
+        <v>473</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>474</v>
+      </c>
+      <c r="O72" t="s">
+        <v>47</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>475</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>476</v>
+      </c>
+      <c r="J73" t="s">
+        <v>477</v>
+      </c>
+      <c r="K73" t="s">
+        <v>478</v>
+      </c>
+      <c r="L73" t="s">
+        <v>479</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>480</v>
+      </c>
+      <c r="O73" t="s">
+        <v>34</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>481</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>482</v>
+      </c>
+      <c r="J74" t="s">
+        <v>483</v>
+      </c>
+      <c r="K74" t="s">
+        <v>484</v>
+      </c>
+      <c r="L74" t="s">
+        <v>485</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>486</v>
+      </c>
+      <c r="O74" t="s">
+        <v>34</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>487</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>488</v>
+      </c>
+      <c r="J75" t="s">
+        <v>489</v>
+      </c>
+      <c r="K75" t="s">
+        <v>490</v>
+      </c>
+      <c r="L75" t="s">
+        <v>491</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>492</v>
+      </c>
+      <c r="O75" t="s">
+        <v>34</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>493</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>494</v>
+      </c>
+      <c r="J76" t="s">
+        <v>495</v>
+      </c>
+      <c r="K76" t="s">
+        <v>496</v>
+      </c>
+      <c r="L76" t="s">
+        <v>497</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>486</v>
+      </c>
+      <c r="O76" t="s">
+        <v>47</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>499</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>500</v>
+      </c>
+      <c r="J77" t="s">
+        <v>501</v>
+      </c>
+      <c r="K77" t="s">
+        <v>502</v>
+      </c>
+      <c r="L77" t="s">
+        <v>503</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>480</v>
+      </c>
+      <c r="O77" t="s">
+        <v>140</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>505</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>506</v>
+      </c>
+      <c r="J78" t="s">
+        <v>507</v>
+      </c>
+      <c r="K78" t="s">
+        <v>508</v>
+      </c>
+      <c r="L78" t="s">
+        <v>509</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>510</v>
+      </c>
+      <c r="O78" t="s">
+        <v>47</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>511</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s">
+        <v>512</v>
+      </c>
+      <c r="J79" t="s">
+        <v>513</v>
+      </c>
+      <c r="K79" t="s">
+        <v>514</v>
+      </c>
+      <c r="L79" t="s">
+        <v>515</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>516</v>
+      </c>
+      <c r="O79" t="s">
+        <v>140</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>518</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>519</v>
+      </c>
+      <c r="J80" t="s">
+        <v>520</v>
+      </c>
+      <c r="K80" t="s">
+        <v>521</v>
+      </c>
+      <c r="L80" t="s">
+        <v>522</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>523</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>524</v>
+      </c>
+      <c r="J81" t="s">
+        <v>520</v>
+      </c>
+      <c r="K81" t="s">
+        <v>525</v>
+      </c>
+      <c r="L81" t="s">
+        <v>526</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>492</v>
+      </c>
+      <c r="O81" t="s">
+        <v>94</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>527</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s">
+        <v>528</v>
+      </c>
+      <c r="J82" t="s">
+        <v>529</v>
+      </c>
+      <c r="K82" t="s">
+        <v>530</v>
+      </c>
+      <c r="L82" t="s">
+        <v>531</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>516</v>
+      </c>
+      <c r="O82" t="s">
+        <v>34</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>533</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s">
+        <v>534</v>
+      </c>
+      <c r="J83" t="s">
+        <v>535</v>
+      </c>
+      <c r="K83" t="s">
+        <v>536</v>
+      </c>
+      <c r="L83" t="s">
+        <v>537</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>516</v>
+      </c>
+      <c r="O83" t="s">
+        <v>47</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>539</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s">
+        <v>540</v>
+      </c>
+      <c r="J84" t="s">
+        <v>541</v>
+      </c>
+      <c r="K84" t="s">
+        <v>542</v>
+      </c>
+      <c r="L84" t="s">
+        <v>543</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>544</v>
+      </c>
+      <c r="O84" t="s">
+        <v>140</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>546</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s">
+        <v>547</v>
+      </c>
+      <c r="J85" t="s">
+        <v>548</v>
+      </c>
+      <c r="K85" t="s">
+        <v>549</v>
+      </c>
+      <c r="L85" t="s">
+        <v>550</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>544</v>
+      </c>
+      <c r="O85" t="s">
+        <v>94</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>552</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>553</v>
+      </c>
+      <c r="J86" t="s">
+        <v>554</v>
+      </c>
+      <c r="K86" t="s">
+        <v>555</v>
+      </c>
+      <c r="L86" t="s">
+        <v>556</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>557</v>
+      </c>
+      <c r="O86" t="s">
+        <v>119</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>558</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s">
+        <v>559</v>
+      </c>
+      <c r="J87" t="s">
+        <v>560</v>
+      </c>
+      <c r="K87" t="s">
+        <v>561</v>
+      </c>
+      <c r="L87" t="s">
+        <v>562</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>563</v>
+      </c>
+      <c r="O87" t="s">
+        <v>47</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>565</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s">
+        <v>566</v>
+      </c>
+      <c r="J88" t="s">
+        <v>567</v>
+      </c>
+      <c r="K88" t="s">
+        <v>568</v>
+      </c>
+      <c r="L88" t="s">
+        <v>569</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>570</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s">
+        <v>571</v>
+      </c>
+      <c r="J89" t="s">
+        <v>572</v>
+      </c>
+      <c r="K89" t="s">
+        <v>573</v>
+      </c>
+      <c r="L89" t="s">
+        <v>574</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>575</v>
+      </c>
+      <c r="O89" t="s">
+        <v>47</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>576</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s">
+        <v>577</v>
+      </c>
+      <c r="J90" t="s">
+        <v>578</v>
+      </c>
+      <c r="K90" t="s">
+        <v>579</v>
+      </c>
+      <c r="L90" t="s">
+        <v>580</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>575</v>
+      </c>
+      <c r="O90" t="s">
+        <v>94</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>582</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s">
+        <v>583</v>
+      </c>
+      <c r="J91" t="s">
+        <v>584</v>
+      </c>
+      <c r="K91" t="s">
+        <v>585</v>
+      </c>
+      <c r="L91" t="s">
+        <v>586</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>587</v>
+      </c>
+      <c r="O91" t="s">
+        <v>34</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>35875</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" t="s">
+        <v>589</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s">
+        <v>590</v>
+      </c>
+      <c r="J92" t="s">
+        <v>591</v>
+      </c>
+      <c r="K92" t="s">
+        <v>592</v>
+      </c>
+      <c r="L92" t="s">
+        <v>593</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>594</v>
+      </c>
+      <c r="O92" t="s">
+        <v>140</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -580,31 +7969,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>595</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>596</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>597</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>598</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>599</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>601</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>602</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2">
@@ -612,31 +8001,31 @@
         <v>35875</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>605</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>606</v>
       </c>
       <c r="E2" t="n">
         <v>70128</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>607</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>604</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>608</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>609</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
